--- a/Calculs/PH4/DataBase_PH4_FileB_V6_results.xlsx
+++ b/Calculs/PH4/DataBase_PH4_FileB_V6_results.xlsx
@@ -935,38 +935,38 @@
         <v>13</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AD3" t="n">
         <v>50.1</v>
       </c>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="AG3" t="n">
         <v>13</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
         <v>2.79355430502262</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>3.431160559105005</v>
       </c>
       <c r="AK3" t="n">
         <v>-191.484240314924</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>-172.7985472420537</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>-230.8518272262002</v>
       </c>
       <c r="AO3" t="n">
         <v>50.1</v>
@@ -990,13 +990,13 @@
         <v>-512.270638475866</v>
       </c>
       <c r="AV3" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="AW3" t="n">
-        <v>2.031657699742721</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
-        <v>-193.6221262552796</v>
+        <v>0</v>
       </c>
       <c r="AY3" t="n">
         <v>32.17518292460515</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="Z4" t="n">
         <v>30</v>
@@ -1091,44 +1091,44 @@
         <v>0.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.5</v>
+        <v>45</v>
       </c>
       <c r="AC4" t="n">
-        <v>30.5</v>
+        <v>75</v>
       </c>
       <c r="AD4" t="n">
-        <v>46.35</v>
+        <v>166.5</v>
       </c>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="n">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.5</v>
+        <v>45</v>
       </c>
       <c r="AH4" t="n">
-        <v>30.5</v>
+        <v>75</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.09734176594839943</v>
+        <v>8.760804740975466</v>
       </c>
       <c r="AJ4" t="n">
-        <v>4.044183118106906</v>
+        <v>9.944712585508775</v>
       </c>
       <c r="AK4" t="n">
-        <v>-2.667892847461114</v>
+        <v>-240.1104675187085</v>
       </c>
       <c r="AL4" t="n">
-        <v>-82.43503757653917</v>
+        <v>-202.7091087947685</v>
       </c>
       <c r="AM4" t="n">
-        <v>-125.687888589617</v>
+        <v>-309.0685784990582</v>
       </c>
       <c r="AN4" t="n">
         <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>46.35</v>
+        <v>166.5</v>
       </c>
       <c r="AP4" t="n">
         <v>86.17590767108317</v>
@@ -1137,25 +1137,25 @@
         <v>138.619928147171</v>
       </c>
       <c r="AR4" t="n">
-        <v>4.56247718919627</v>
+        <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>-125.9718936496875</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>-200.0080382361946</v>
+        <v>0</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
       </c>
       <c r="AV4" t="n">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.099998248405988</v>
+        <v>11.52301246329038</v>
       </c>
       <c r="AX4" t="n">
-        <v>-84.19665380595163</v>
+        <v>-382.7235104152917</v>
       </c>
       <c r="AY4" t="n">
         <v>138.619928147171</v>
@@ -1253,38 +1253,38 @@
         <v>18.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>33.5</v>
       </c>
       <c r="AD5" t="n">
         <v>72.45</v>
       </c>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="n">
-        <v>19.5</v>
+        <v>52</v>
       </c>
       <c r="AG5" t="n">
         <v>18.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>33.5</v>
       </c>
       <c r="AI5" t="n">
         <v>3.975442664839878</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.1194537706801905</v>
+        <v>4.001711786488657</v>
       </c>
       <c r="AK5" t="n">
         <v>-272.4968035250843</v>
       </c>
       <c r="AL5" t="n">
-        <v>-4.818275685739597</v>
+        <v>-161.4122008939051</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>-6.468679411396811</v>
+        <v>-216.7007289379154</v>
       </c>
       <c r="AO5" t="n">
         <v>72.45</v>
@@ -1308,13 +1308,13 @@
         <v>-478.6251841400194</v>
       </c>
       <c r="AV5" t="n">
-        <v>19.5</v>
+        <v>52</v>
       </c>
       <c r="AW5" t="n">
-        <v>3.014864780376253</v>
+        <v>0</v>
       </c>
       <c r="AX5" t="n">
-        <v>-290.5283067317997</v>
+        <v>0</v>
       </c>
       <c r="AY5" t="n">
         <v>32.17518292460515</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="Z6" t="n">
         <v>40.5</v>
@@ -1409,44 +1409,44 @@
         <v>0.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="AC6" t="n">
-        <v>41.5</v>
+        <v>97.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>63.45</v>
+        <v>214.65</v>
       </c>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="n">
-        <v>42.5</v>
+        <v>154.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="AH6" t="n">
-        <v>41.5</v>
+        <v>97.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.1457899731022403</v>
+        <v>8.310001842737773</v>
       </c>
       <c r="AJ6" t="n">
-        <v>4.726416721769092</v>
+        <v>11.10423205716835</v>
       </c>
       <c r="AK6" t="n">
-        <v>-4.422988169097993</v>
+        <v>-252.1106088385061</v>
       </c>
       <c r="AL6" t="n">
-        <v>-112.0817822230348</v>
+        <v>-263.3246690782141</v>
       </c>
       <c r="AM6" t="n">
-        <v>-135.7674228249677</v>
+        <v>-318.9716560345627</v>
       </c>
       <c r="AN6" t="n">
         <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>63.45</v>
+        <v>214.65</v>
       </c>
       <c r="AP6" t="n">
         <v>105.1896123745755</v>
@@ -1455,25 +1455,25 @@
         <v>157.0991509133779</v>
       </c>
       <c r="AR6" t="n">
-        <v>5.310769648554817</v>
+        <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>-174.770412077454</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>-215.5360413193084</v>
+        <v>0</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
       </c>
       <c r="AV6" t="n">
-        <v>42.5</v>
+        <v>154.5</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.623351382189148</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="AX6" t="n">
-        <v>-116.9404015971057</v>
+        <v>-442.7180843271402</v>
       </c>
       <c r="AY6" t="n">
         <v>157.0991509133779</v>
@@ -1571,38 +1571,38 @@
         <v>18.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>1</v>
+        <v>35.5</v>
       </c>
       <c r="AD7" t="n">
         <v>75.45</v>
       </c>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="n">
-        <v>19.5</v>
+        <v>54</v>
       </c>
       <c r="AG7" t="n">
         <v>18.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>1</v>
+        <v>35.5</v>
       </c>
       <c r="AI7" t="n">
         <v>3.975442664839878</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.1194537706801905</v>
+        <v>4.240619952846188</v>
       </c>
       <c r="AK7" t="n">
         <v>-272.4968035250843</v>
       </c>
       <c r="AL7" t="n">
-        <v>-4.818275685739597</v>
+        <v>-171.0487502010038</v>
       </c>
       <c r="AM7" t="n">
         <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>-6.468679411396811</v>
+        <v>-229.6380858894327</v>
       </c>
       <c r="AO7" t="n">
         <v>75.45</v>
@@ -1626,13 +1626,13 @@
         <v>-498.523013684633</v>
       </c>
       <c r="AV7" t="n">
-        <v>19.5</v>
+        <v>54</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.014864780376253</v>
+        <v>0</v>
       </c>
       <c r="AX7" t="n">
-        <v>-290.5283067317997</v>
+        <v>0</v>
       </c>
       <c r="AY7" t="n">
         <v>32.17518292460515</v>
@@ -1718,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="Z8" t="n">
         <v>43</v>
@@ -1727,44 +1727,44 @@
         <v>0.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.5</v>
+        <v>59.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>44.5</v>
+        <v>102.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>68.55</v>
+        <v>225.15</v>
       </c>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="n">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="AG8" t="n">
-        <v>1.5</v>
+        <v>59.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>44.5</v>
+        <v>102.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.2481612109823544</v>
+        <v>9.843828288999681</v>
       </c>
       <c r="AJ8" t="n">
-        <v>4.886858190867734</v>
+        <v>11.25624639469534</v>
       </c>
       <c r="AK8" t="n">
-        <v>-8.770923457123111</v>
+        <v>-347.9126566304043</v>
       </c>
       <c r="AL8" t="n">
-        <v>-114.6922847694868</v>
+        <v>-264.1788581769078</v>
       </c>
       <c r="AM8" t="n">
-        <v>-138.982918961948</v>
+        <v>-320.1291953617903</v>
       </c>
       <c r="AN8" t="n">
         <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>68.55</v>
+        <v>225.15</v>
       </c>
       <c r="AP8" t="n">
         <v>81.16433098054297</v>
@@ -1773,25 +1773,25 @@
         <v>159.7161898918707</v>
       </c>
       <c r="AR8" t="n">
-        <v>5.51548225753775</v>
+        <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>-179.5115461545912</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>-221.5656276652487</v>
+        <v>0</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
       </c>
       <c r="AV8" t="n">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="AW8" t="n">
-        <v>3.772849947762153</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
-        <v>-120.3485395419887</v>
+        <v>0</v>
       </c>
       <c r="AY8" t="n">
         <v>159.7161898918707</v>
@@ -1889,38 +1889,38 @@
         <v>20.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>2</v>
+        <v>38.5</v>
       </c>
       <c r="AD9" t="n">
         <v>82.34999999999999</v>
       </c>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="n">
-        <v>22.5</v>
+        <v>59</v>
       </c>
       <c r="AG9" t="n">
         <v>20.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>2</v>
+        <v>38.5</v>
       </c>
       <c r="AI9" t="n">
         <v>4.405220250227974</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.2389075758496815</v>
+        <v>4.598982202382482</v>
       </c>
       <c r="AK9" t="n">
         <v>-301.9559174196879</v>
       </c>
       <c r="AL9" t="n">
-        <v>-9.636552766785183</v>
+        <v>-185.5035741616522</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>-12.93736069589676</v>
+        <v>-249.0441213167088</v>
       </c>
       <c r="AO9" t="n">
         <v>82.34999999999999</v>
@@ -1944,13 +1944,13 @@
         <v>-544.3144985972706</v>
       </c>
       <c r="AV9" t="n">
-        <v>22.5</v>
+        <v>59</v>
       </c>
       <c r="AW9" t="n">
-        <v>3.461077368099303</v>
+        <v>0</v>
       </c>
       <c r="AX9" t="n">
-        <v>-335.2765352627952</v>
+        <v>0</v>
       </c>
       <c r="AY9" t="n">
         <v>32.17518292460515</v>
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>4</v>
+        <v>122.5</v>
       </c>
       <c r="Z10" t="n">
         <v>36</v>
@@ -2045,44 +2045,44 @@
         <v>0.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>2</v>
+        <v>61.25</v>
       </c>
       <c r="AC10" t="n">
-        <v>38</v>
+        <v>97.25</v>
       </c>
       <c r="AD10" t="n">
-        <v>59.4</v>
+        <v>219.375</v>
       </c>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="n">
-        <v>40</v>
+        <v>158.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>2</v>
+        <v>61.25</v>
       </c>
       <c r="AH10" t="n">
-        <v>38</v>
+        <v>97.25</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.2915783039772334</v>
+        <v>8.929607243292784</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3.974228268920454</v>
+        <v>10.17088681980301</v>
       </c>
       <c r="AK10" t="n">
-        <v>-8.845991216747723</v>
+        <v>-270.9083296729561</v>
       </c>
       <c r="AL10" t="n">
-        <v>-85.93496302090635</v>
+        <v>-219.9256619416616</v>
       </c>
       <c r="AM10" t="n">
-        <v>-104.4662219882106</v>
+        <v>-267.3510549566706</v>
       </c>
       <c r="AN10" t="n">
         <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>59.4</v>
+        <v>219.375</v>
       </c>
       <c r="AP10" t="n">
         <v>105.1896123745755</v>
@@ -2091,25 +2091,25 @@
         <v>182.1876752495927</v>
       </c>
       <c r="AR10" t="n">
-        <v>4.624436420105331</v>
+        <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>-136.7309181874616</v>
+        <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>-169.5180784972136</v>
+        <v>0</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
       </c>
       <c r="AV10" t="n">
-        <v>40</v>
+        <v>158.5</v>
       </c>
       <c r="AW10" t="n">
-        <v>3.162503489081383</v>
+        <v>11.39534455607183</v>
       </c>
       <c r="AX10" t="n">
-        <v>-91.98877356926404</v>
+        <v>-383.5242185879521</v>
       </c>
       <c r="AY10" t="n">
         <v>182.1876752495927</v>
@@ -2207,38 +2207,38 @@
         <v>20.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>2</v>
+        <v>32.5</v>
       </c>
       <c r="AD11" t="n">
         <v>73.34999999999999</v>
       </c>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="n">
-        <v>22.5</v>
+        <v>53</v>
       </c>
       <c r="AG11" t="n">
         <v>20.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>2</v>
+        <v>32.5</v>
       </c>
       <c r="AI11" t="n">
         <v>4.405220250227974</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.2389075758496815</v>
+        <v>3.882257703309887</v>
       </c>
       <c r="AK11" t="n">
         <v>-301.9559174196879</v>
       </c>
       <c r="AL11" t="n">
-        <v>-9.636552766785183</v>
+        <v>-156.5939262403556</v>
       </c>
       <c r="AM11" t="n">
         <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>-12.93736069589676</v>
+        <v>-210.2320504621566</v>
       </c>
       <c r="AO11" t="n">
         <v>73.34999999999999</v>
@@ -2262,13 +2262,13 @@
         <v>-484.5938095746736</v>
       </c>
       <c r="AV11" t="n">
-        <v>22.5</v>
+        <v>53</v>
       </c>
       <c r="AW11" t="n">
-        <v>3.461077368099303</v>
+        <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>-335.2765352627952</v>
+        <v>0</v>
       </c>
       <c r="AY11" t="n">
         <v>32.17518292460515</v>
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>5</v>
+        <v>129</v>
       </c>
       <c r="Z12" t="n">
         <v>37.5</v>
@@ -2363,44 +2363,44 @@
         <v>0.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>2.5</v>
+        <v>64.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="AD12" t="n">
-        <v>63</v>
+        <v>230.4</v>
       </c>
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="n">
-        <v>42.5</v>
+        <v>166.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>2.5</v>
+        <v>64.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.3644735016220045</v>
+        <v>9.403423137834842</v>
       </c>
       <c r="AJ12" t="n">
-        <v>4.183398177811009</v>
+        <v>10.66766535341807</v>
       </c>
       <c r="AK12" t="n">
-        <v>-11.0574846822246</v>
+        <v>-285.2830573698885</v>
       </c>
       <c r="AL12" t="n">
-        <v>-90.45785581148037</v>
+        <v>-230.6675323192749</v>
       </c>
       <c r="AM12" t="n">
-        <v>-109.9644441981165</v>
+        <v>-280.4093327051969</v>
       </c>
       <c r="AN12" t="n">
         <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>63</v>
+        <v>230.4</v>
       </c>
       <c r="AP12" t="n">
         <v>105.1896123745755</v>
@@ -2409,25 +2409,25 @@
         <v>182.1876752495927</v>
       </c>
       <c r="AR12" t="n">
-        <v>4.890243071623908</v>
+        <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>-145.0433489141533</v>
+        <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>-179.8448169120072</v>
+        <v>0</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
       </c>
       <c r="AV12" t="n">
-        <v>42.5</v>
+        <v>166.5</v>
       </c>
       <c r="AW12" t="n">
-        <v>3.353637118178186</v>
+        <v>12.02428757610131</v>
       </c>
       <c r="AX12" t="n">
-        <v>-97.74963670949624</v>
+        <v>-420.2821313214105</v>
       </c>
       <c r="AY12" t="n">
         <v>182.1876752495927</v>
@@ -2525,38 +2525,38 @@
         <v>21</v>
       </c>
       <c r="AC13" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="AD13" t="n">
         <v>83.7</v>
       </c>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AG13" t="n">
         <v>21</v>
       </c>
       <c r="AH13" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="AI13" t="n">
         <v>4.512664646575003</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.3583618980150629</v>
+        <v>4.65870924397187</v>
       </c>
       <c r="AK13" t="n">
         <v>-309.3206958933388</v>
       </c>
       <c r="AL13" t="n">
-        <v>-14.45482602015214</v>
+        <v>-187.912711488427</v>
       </c>
       <c r="AM13" t="n">
         <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>-19.4060376562538</v>
+        <v>-252.2784605545883</v>
       </c>
       <c r="AO13" t="n">
         <v>83.7</v>
@@ -2580,13 +2580,13 @@
         <v>-553.278087798582</v>
       </c>
       <c r="AV13" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AW13" t="n">
-        <v>3.682359830247302</v>
+        <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>-357.6560435857378</v>
+        <v>0</v>
       </c>
       <c r="AY13" t="n">
         <v>32.17518292460515</v>
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="Z14" t="n">
         <v>40.5</v>
@@ -2681,44 +2681,44 @@
         <v>0.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>3</v>
+        <v>57.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>43.5</v>
+        <v>98</v>
       </c>
       <c r="AD14" t="n">
-        <v>68.84999999999999</v>
+        <v>216</v>
       </c>
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="n">
-        <v>46.5</v>
+        <v>155.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>57.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>43.5</v>
+        <v>98</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.459379426945795</v>
+        <v>8.804772349794415</v>
       </c>
       <c r="AJ14" t="n">
-        <v>4.432215748349708</v>
+        <v>9.985221685937271</v>
       </c>
       <c r="AK14" t="n">
-        <v>-9.976956451628496</v>
+        <v>-191.2249986562128</v>
       </c>
       <c r="AL14" t="n">
-        <v>-67.3095016813003</v>
+        <v>-151.6397968912053</v>
       </c>
       <c r="AM14" t="n">
-        <v>-101.1867284722189</v>
+        <v>-227.9609055236196</v>
       </c>
       <c r="AN14" t="n">
         <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>68.84999999999999</v>
+        <v>216</v>
       </c>
       <c r="AP14" t="n">
         <v>134.5896603149895</v>
@@ -2727,25 +2727,25 @@
         <v>230.3059283523893</v>
       </c>
       <c r="AR14" t="n">
-        <v>5.258180072626941</v>
+        <v>15.03058773274992</v>
       </c>
       <c r="AS14" t="n">
-        <v>-106.9294304491579</v>
+        <v>-419.6936192355785</v>
       </c>
       <c r="AT14" t="n">
-        <v>-169.3771922378099</v>
+        <v>-435.6236991407416</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
       </c>
       <c r="AV14" t="n">
-        <v>46.5</v>
+        <v>155.5</v>
       </c>
       <c r="AW14" t="n">
-        <v>3.613244650341783</v>
+        <v>10.95854528052023</v>
       </c>
       <c r="AX14" t="n">
-        <v>-72.17672337561248</v>
+        <v>-242.1591925809983</v>
       </c>
       <c r="AY14" t="n">
         <v>230.3059283523893</v>
@@ -2843,38 +2843,38 @@
         <v>16.8</v>
       </c>
       <c r="AC15" t="n">
-        <v>3</v>
+        <v>31.8</v>
       </c>
       <c r="AD15" t="n">
         <v>67.86000000000001</v>
       </c>
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="n">
-        <v>19.8</v>
+        <v>48.6</v>
       </c>
       <c r="AG15" t="n">
         <v>16.8</v>
       </c>
       <c r="AH15" t="n">
-        <v>3</v>
+        <v>31.8</v>
       </c>
       <c r="AI15" t="n">
         <v>2.17706417792705</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.3185096555770849</v>
+        <v>3.376201865449619</v>
       </c>
       <c r="AK15" t="n">
         <v>-84.01505828652971</v>
       </c>
       <c r="AL15" t="n">
-        <v>-10.27201959427891</v>
+        <v>-108.8834098684569</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>-13.87549646775108</v>
+        <v>-147.0802647547279</v>
       </c>
       <c r="AO15" t="n">
         <v>67.86000000000001</v>
@@ -2898,13 +2898,13 @@
         <v>-323.6692133758292</v>
       </c>
       <c r="AV15" t="n">
-        <v>19.8</v>
+        <v>48.6</v>
       </c>
       <c r="AW15" t="n">
-        <v>1.917740649779276</v>
+        <v>4.57520855646387</v>
       </c>
       <c r="AX15" t="n">
-        <v>-100.7669006139492</v>
+        <v>-247.6952007586089</v>
       </c>
       <c r="AY15" t="n">
         <v>95.174094445131</v>
@@ -2990,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>7</v>
+        <v>112.5</v>
       </c>
       <c r="Z16" t="n">
         <v>37.5</v>
@@ -2999,44 +2999,44 @@
         <v>0.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>3.5</v>
+        <v>56.25</v>
       </c>
       <c r="AC16" t="n">
-        <v>41</v>
+        <v>93.75</v>
       </c>
       <c r="AD16" t="n">
-        <v>65.7</v>
+        <v>208.125</v>
       </c>
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="n">
-        <v>44.5</v>
+        <v>150</v>
       </c>
       <c r="AG16" t="n">
-        <v>3.5</v>
+        <v>56.25</v>
       </c>
       <c r="AH16" t="n">
-        <v>41</v>
+        <v>93.75</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.5545103820745949</v>
+        <v>8.911773997627417</v>
       </c>
       <c r="AJ16" t="n">
-        <v>5.499571178322194</v>
+        <v>12.57523897482209</v>
       </c>
       <c r="AK16" t="n">
-        <v>-18.6755394283185</v>
+        <v>-300.1425979551188</v>
       </c>
       <c r="AL16" t="n">
-        <v>-157.8115299717209</v>
+        <v>-360.8495349963129</v>
       </c>
       <c r="AM16" t="n">
-        <v>-189.9375769334117</v>
+        <v>-434.3084838416427</v>
       </c>
       <c r="AN16" t="n">
         <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>65.7</v>
+        <v>208.125</v>
       </c>
       <c r="AP16" t="n">
         <v>88.50002969897365</v>
@@ -3045,25 +3045,25 @@
         <v>114.9750776269257</v>
       </c>
       <c r="AR16" t="n">
-        <v>6.326444128352399</v>
+        <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>-258.1487731089255</v>
+        <v>0</v>
       </c>
       <c r="AT16" t="n">
-        <v>-315.3293537844458</v>
+        <v>0</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
       </c>
       <c r="AV16" t="n">
-        <v>44.5</v>
+        <v>150</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.386075956302512</v>
+        <v>0</v>
       </c>
       <c r="AX16" t="n">
-        <v>-174.6121904894856</v>
+        <v>0</v>
       </c>
       <c r="AY16" t="n">
         <v>114.9750776269257</v>
@@ -3161,38 +3161,38 @@
         <v>22</v>
       </c>
       <c r="AC17" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="AD17" t="n">
         <v>83.40000000000001</v>
       </c>
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="AG17" t="n">
         <v>22</v>
       </c>
       <c r="AH17" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="AI17" t="n">
         <v>2.850917375856849</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.4651439673967576</v>
+        <v>4.418889452694378</v>
       </c>
       <c r="AK17" t="n">
         <v>-110.0197191847413</v>
       </c>
       <c r="AL17" t="n">
-        <v>-16.25249998590392</v>
+        <v>-154.3986099149525</v>
       </c>
       <c r="AM17" t="n">
         <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>-21.90229694922037</v>
+        <v>-208.0716667212731</v>
       </c>
       <c r="AO17" t="n">
         <v>83.40000000000001</v>
@@ -3216,13 +3216,13 @@
         <v>-471.8990833006507</v>
       </c>
       <c r="AV17" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="AW17" t="n">
-        <v>2.503389607246798</v>
+        <v>5.581144604391039</v>
       </c>
       <c r="AX17" t="n">
-        <v>-132.3602719999964</v>
+        <v>-305.9809829439516</v>
       </c>
       <c r="AY17" t="n">
         <v>95.174094445131</v>
@@ -3300,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
         <v>0</v>
@@ -3309,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
       </c>
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AH18" t="n">
         <v>0</v>
       </c>
       <c r="AI18" t="n">
-        <v>15.62555315612576</v>
+        <v>0</v>
       </c>
       <c r="AJ18" t="n">
         <v>0</v>
       </c>
       <c r="AK18" t="n">
-        <v>-4776.119402985076</v>
+        <v>0</v>
       </c>
       <c r="AL18" t="n">
         <v>0</v>
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="AV18" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AW18" t="n">
         <v>0</v>
@@ -3471,38 +3471,38 @@
         <v>40</v>
       </c>
       <c r="AC19" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AD19" t="n">
         <v>76.5</v>
       </c>
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AG19" t="n">
         <v>40</v>
       </c>
       <c r="AH19" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AI19" t="n">
         <v>7.967015698338476</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.6849586647634166</v>
+        <v>2.568579008837751</v>
       </c>
       <c r="AK19" t="n">
         <v>-311.891325633184</v>
       </c>
       <c r="AL19" t="n">
-        <v>-23.50827606028751</v>
+        <v>-88.15613161805773</v>
       </c>
       <c r="AM19" t="n">
         <v>0</v>
       </c>
       <c r="AN19" t="n">
-        <v>-32.6694634538188</v>
+        <v>-122.5105927187556</v>
       </c>
       <c r="AO19" t="n">
         <v>76.5</v>
@@ -3526,13 +3526,13 @@
         <v>-732.5110682965544</v>
       </c>
       <c r="AV19" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AW19" t="n">
-        <v>6.233385086202207</v>
+        <v>8.261422254623383</v>
       </c>
       <c r="AX19" t="n">
-        <v>-349.9206123624758</v>
+        <v>-435.1405369458984</v>
       </c>
       <c r="AY19" t="n">
         <v>61.08963333353998</v>
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="Z20" t="n">
         <v>30</v>
@@ -3627,32 +3627,32 @@
         <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="AC20" t="n">
         <v>30</v>
       </c>
       <c r="AD20" t="n">
-        <v>57.15</v>
+        <v>151.65</v>
       </c>
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="n">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="AG20" t="n">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="n">
         <v>30</v>
       </c>
       <c r="AI20" t="n">
-        <v>1.165480835000291</v>
+        <v>10.23033177389145</v>
       </c>
       <c r="AJ20" t="n">
         <v>3.884936116667638</v>
       </c>
       <c r="AK20" t="n">
-        <v>-26.10440899923852</v>
+        <v>-229.1387012155381</v>
       </c>
       <c r="AL20" t="n">
         <v>-87.01469666412839</v>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>57.15</v>
+        <v>151.65</v>
       </c>
       <c r="AP20" t="n">
         <v>154.8698944980597</v>
@@ -3673,10 +3673,10 @@
         <v>154.8698944980597</v>
       </c>
       <c r="AR20" t="n">
-        <v>5.481897004598846</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="AS20" t="n">
-        <v>-170.7088221759051</v>
+        <v>-439.3591330525542</v>
       </c>
       <c r="AT20" t="n">
         <v>0</v>
@@ -3685,13 +3685,13 @@
         <v>0</v>
       </c>
       <c r="AV20" t="n">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="AW20" t="n">
-        <v>3.810744090925785</v>
+        <v>9.84271529787962</v>
       </c>
       <c r="AX20" t="n">
-        <v>-116.3036837847142</v>
+        <v>-327.2921778171549</v>
       </c>
       <c r="AY20" t="n">
         <v>154.8698944980597</v>
@@ -3789,38 +3789,38 @@
         <v>8.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AD21" t="n">
         <v>29.475</v>
       </c>
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="n">
-        <v>13.5</v>
+        <v>20.5</v>
       </c>
       <c r="AG21" t="n">
         <v>8.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AI21" t="n">
         <v>1.692990835896928</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.8561930029459169</v>
+        <v>2.054863207070203</v>
       </c>
       <c r="AK21" t="n">
         <v>-66.27690669705159</v>
       </c>
       <c r="AL21" t="n">
-        <v>-29.38537720601923</v>
+        <v>-70.52490529444619</v>
       </c>
       <c r="AM21" t="n">
         <v>0</v>
       </c>
       <c r="AN21" t="n">
-        <v>-40.8368642395852</v>
+        <v>-98.00847417500451</v>
       </c>
       <c r="AO21" t="n">
         <v>29.475</v>
@@ -3844,13 +3844,13 @@
         <v>-248.1469337844648</v>
       </c>
       <c r="AV21" t="n">
-        <v>13.5</v>
+        <v>20.5</v>
       </c>
       <c r="AW21" t="n">
-        <v>2.007623148892962</v>
+        <v>3.016678938520806</v>
       </c>
       <c r="AX21" t="n">
-        <v>-107.0900939010169</v>
+        <v>-162.7086999828226</v>
       </c>
       <c r="AY21" t="n">
         <v>61.08963333353998</v>
@@ -3936,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="Z22" t="n">
         <v>33</v>
@@ -3945,32 +3945,32 @@
         <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="AC22" t="n">
         <v>33</v>
       </c>
       <c r="AD22" t="n">
-        <v>63</v>
+        <v>158.85</v>
       </c>
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="n">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="AH22" t="n">
         <v>33</v>
       </c>
       <c r="AI22" t="n">
-        <v>2.110874847069763</v>
+        <v>17.09808626126508</v>
       </c>
       <c r="AJ22" t="n">
         <v>6.965886995330214</v>
       </c>
       <c r="AK22" t="n">
-        <v>-41.57592058816141</v>
+        <v>-336.7649567641074</v>
       </c>
       <c r="AL22" t="n">
         <v>-137.2005379409327</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="AO22" t="n">
-        <v>63</v>
+        <v>158.85</v>
       </c>
       <c r="AP22" t="n">
         <v>106.272141018135</v>
@@ -3991,10 +3991,10 @@
         <v>106.272141018135</v>
       </c>
       <c r="AR22" t="n">
-        <v>9.410547920622019</v>
+        <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>-271.9261822359128</v>
+        <v>0</v>
       </c>
       <c r="AT22" t="n">
         <v>0</v>
@@ -4003,13 +4003,13 @@
         <v>0</v>
       </c>
       <c r="AV22" t="n">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="AW22" t="n">
-        <v>6.672565225137823</v>
+        <v>0</v>
       </c>
       <c r="AX22" t="n">
-        <v>-184.9301407778063</v>
+        <v>0</v>
       </c>
       <c r="AY22" t="n">
         <v>106.272141018135</v>
@@ -4107,38 +4107,38 @@
         <v>40</v>
       </c>
       <c r="AC23" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AD23" t="n">
         <v>82.5</v>
       </c>
       <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="n">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AG23" t="n">
         <v>40</v>
       </c>
       <c r="AH23" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AI23" t="n">
         <v>6.886890121749387</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0.7694238026018666</v>
+        <v>2.923805117295196</v>
       </c>
       <c r="AK23" t="n">
         <v>-224.8280927442917</v>
       </c>
       <c r="AL23" t="n">
-        <v>-22.7612974604976</v>
+        <v>-86.49296578628731</v>
       </c>
       <c r="AM23" t="n">
         <v>0</v>
       </c>
       <c r="AN23" t="n">
-        <v>-31.7963852663442</v>
+        <v>-120.8263033716796</v>
       </c>
       <c r="AO23" t="n">
         <v>82.5</v>
@@ -4162,13 +4162,13 @@
         <v>-547.1002642017326</v>
       </c>
       <c r="AV23" t="n">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AW23" t="n">
-        <v>5.602564455670454</v>
+        <v>7.195971426056565</v>
       </c>
       <c r="AX23" t="n">
-        <v>-258.666334810082</v>
+        <v>-339.5567150381156</v>
       </c>
       <c r="AY23" t="n">
         <v>83.69813879443399</v>
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="Z24" t="n">
         <v>41</v>
@@ -4263,32 +4263,32 @@
         <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="AC24" t="n">
         <v>41</v>
       </c>
       <c r="AD24" t="n">
-        <v>76.34999999999999</v>
+        <v>216.75</v>
       </c>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="n">
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="AG24" t="n">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="AH24" t="n">
         <v>41</v>
       </c>
       <c r="AI24" t="n">
-        <v>1.46281776742945</v>
+        <v>15.29309484130789</v>
       </c>
       <c r="AJ24" t="n">
         <v>4.843429470200694</v>
       </c>
       <c r="AK24" t="n">
-        <v>-33.94815237741941</v>
+        <v>-354.9125021275665</v>
       </c>
       <c r="AL24" t="n">
         <v>-100.7482973932941</v>
@@ -4300,7 +4300,7 @@
         <v>-142.97340595859</v>
       </c>
       <c r="AO24" t="n">
-        <v>76.34999999999999</v>
+        <v>216.75</v>
       </c>
       <c r="AP24" t="n">
         <v>146.1731955380777</v>
@@ -4309,25 +4309,25 @@
         <v>245.8270678494522</v>
       </c>
       <c r="AR24" t="n">
-        <v>6.593172581120004</v>
+        <v>16.55752181657616</v>
       </c>
       <c r="AS24" t="n">
-        <v>-192.4661059138064</v>
+        <v>-436.6553053837681</v>
       </c>
       <c r="AT24" t="n">
         <v>0</v>
       </c>
       <c r="AU24" t="n">
-        <v>-280.521617113329</v>
+        <v>-1366.78385444302</v>
       </c>
       <c r="AV24" t="n">
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="AW24" t="n">
-        <v>5.130160333709504</v>
+        <v>0</v>
       </c>
       <c r="AX24" t="n">
-        <v>-165.0870287004259</v>
+        <v>0</v>
       </c>
       <c r="AY24" t="n">
         <v>146.1731955380777</v>
@@ -4425,38 +4425,38 @@
         <v>36</v>
       </c>
       <c r="AC25" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AD25" t="n">
         <v>75.59999999999999</v>
       </c>
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="AG25" t="n">
         <v>36</v>
       </c>
       <c r="AH25" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AI25" t="n">
         <v>7.170314128504637</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1.027431603535101</v>
+        <v>3.082294810605302</v>
       </c>
       <c r="AK25" t="n">
         <v>-280.7021930698656</v>
       </c>
       <c r="AL25" t="n">
-        <v>-35.2624526472231</v>
+        <v>-105.7873579416693</v>
       </c>
       <c r="AM25" t="n">
         <v>0</v>
       </c>
       <c r="AN25" t="n">
-        <v>-49.00423708750226</v>
+        <v>-147.0127112625068</v>
       </c>
       <c r="AO25" t="n">
         <v>75.59999999999999</v>
@@ -4480,13 +4480,13 @@
         <v>-704.8041031511038</v>
       </c>
       <c r="AV25" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="AW25" t="n">
-        <v>5.970368791584291</v>
+        <v>7.516630138644521</v>
       </c>
       <c r="AX25" t="n">
-        <v>-333.9563619074052</v>
+        <v>-429.8359251608343</v>
       </c>
       <c r="AY25" t="n">
         <v>61.08963333353998</v>
@@ -4572,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="Z26" t="n">
         <v>37.5</v>
@@ -4581,32 +4581,32 @@
         <v>0</v>
       </c>
       <c r="AB26" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="AC26" t="n">
         <v>37.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>72.45</v>
+        <v>191.25</v>
       </c>
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="n">
-        <v>49.5</v>
+        <v>137.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="AH26" t="n">
         <v>37.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>1.595801200832128</v>
+        <v>13.29834334026774</v>
       </c>
       <c r="AJ26" t="n">
         <v>4.4299659788421</v>
       </c>
       <c r="AK26" t="n">
-        <v>-37.03434804809389</v>
+        <v>-308.6195670674492</v>
       </c>
       <c r="AL26" t="n">
         <v>-92.14783298167147</v>
@@ -4618,7 +4618,7 @@
         <v>-130.7683591084665</v>
       </c>
       <c r="AO26" t="n">
-        <v>72.45</v>
+        <v>191.25</v>
       </c>
       <c r="AP26" t="n">
         <v>146.1731955380777</v>
@@ -4627,25 +4627,25 @@
         <v>245.8270678494522</v>
       </c>
       <c r="AR26" t="n">
-        <v>6.280229325774086</v>
+        <v>15.1649148747813</v>
       </c>
       <c r="AS26" t="n">
-        <v>-182.5863043687699</v>
+        <v>-435.5875966024719</v>
       </c>
       <c r="AT26" t="n">
         <v>0</v>
       </c>
       <c r="AU26" t="n">
-        <v>-266.0670442944587</v>
+        <v>-950.5903013840446</v>
       </c>
       <c r="AV26" t="n">
-        <v>49.5</v>
+        <v>137.5</v>
       </c>
       <c r="AW26" t="n">
-        <v>4.896161385612263</v>
+        <v>13.23159831641656</v>
       </c>
       <c r="AX26" t="n">
-        <v>-157.119010462842</v>
+        <v>-435.3424203973313</v>
       </c>
       <c r="AY26" t="n">
         <v>146.1731955380777</v>
@@ -4743,38 +4743,38 @@
         <v>31</v>
       </c>
       <c r="AC27" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AD27" t="n">
         <v>64.34999999999999</v>
       </c>
       <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AG27" t="n">
         <v>31</v>
       </c>
       <c r="AH27" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AI27" t="n">
         <v>5.337339844355779</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0.9233078687611092</v>
+        <v>2.308267197864629</v>
       </c>
       <c r="AK27" t="n">
         <v>-174.2417718768261</v>
       </c>
       <c r="AL27" t="n">
-        <v>-27.31356156679914</v>
+        <v>-68.28392035759528</v>
       </c>
       <c r="AM27" t="n">
         <v>0</v>
       </c>
       <c r="AN27" t="n">
-        <v>-38.1556674446549</v>
+        <v>-95.38918687237866</v>
       </c>
       <c r="AO27" t="n">
         <v>64.34999999999999</v>
@@ -4798,13 +4798,13 @@
         <v>-425.7297567649752</v>
       </c>
       <c r="AV27" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AW27" t="n">
-        <v>4.658362604527141</v>
+        <v>5.718903865787377</v>
       </c>
       <c r="AX27" t="n">
-        <v>-212.5381309500243</v>
+        <v>-264.4370868072546</v>
       </c>
       <c r="AY27" t="n">
         <v>83.69813879443399</v>
@@ -4882,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Z28" t="n">
         <v>0</v>
@@ -4891,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AC28" t="n">
         <v>0</v>
@@ -4901,22 +4901,22 @@
       </c>
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AG28" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH28" t="n">
         <v>0</v>
       </c>
       <c r="AI28" t="n">
-        <v>25.3915238787048</v>
+        <v>0</v>
       </c>
       <c r="AJ28" t="n">
         <v>0</v>
       </c>
       <c r="AK28" t="n">
-        <v>-7761.194029850743</v>
+        <v>0</v>
       </c>
       <c r="AL28" t="n">
         <v>0</v>
@@ -4949,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="AV28" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AW28" t="n">
         <v>0</v>
@@ -5053,32 +5053,32 @@
         <v>24</v>
       </c>
       <c r="AC29" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AD29" t="n">
         <v>47.40000000000001</v>
       </c>
       <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AG29" t="n">
         <v>24</v>
       </c>
       <c r="AH29" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AI29" t="n">
         <v>4.181112306657426</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1.219491089441751</v>
+        <v>1.742130127773928</v>
       </c>
       <c r="AK29" t="n">
         <v>-201.6887910703702</v>
       </c>
       <c r="AL29" t="n">
-        <v>-58.82589739552467</v>
+        <v>-84.03699627932095</v>
       </c>
       <c r="AM29" t="n">
         <v>0</v>
@@ -5108,13 +5108,13 @@
         <v>0</v>
       </c>
       <c r="AV29" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AW29" t="n">
-        <v>3.920023221613095</v>
+        <v>4.281213155612427</v>
       </c>
       <c r="AX29" t="n">
-        <v>-264.5176048766199</v>
+        <v>-290.1709782561669</v>
       </c>
       <c r="AY29" t="n">
         <v>56.60596502168529</v>
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>14</v>
+        <v>32.5</v>
       </c>
       <c r="Z30" t="n">
         <v>18.5</v>
@@ -5209,32 +5209,32 @@
         <v>0</v>
       </c>
       <c r="AB30" t="n">
-        <v>14</v>
+        <v>32.5</v>
       </c>
       <c r="AC30" t="n">
         <v>18.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>46.65000000000001</v>
+        <v>71.625</v>
       </c>
       <c r="AE30" t="inlineStr"/>
       <c r="AF30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG30" t="n">
         <v>32.5</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>14</v>
       </c>
       <c r="AH30" t="n">
         <v>18.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>1.81297018777823</v>
+        <v>4.208680793056605</v>
       </c>
       <c r="AJ30" t="n">
         <v>2.395710605278377</v>
       </c>
       <c r="AK30" t="n">
-        <v>-40.60685844325992</v>
+        <v>-94.2659213861391</v>
       </c>
       <c r="AL30" t="n">
         <v>-53.65906294287918</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="AO30" t="n">
-        <v>46.65000000000001</v>
+        <v>71.625</v>
       </c>
       <c r="AP30" t="n">
         <v>154.8698944980596</v>
@@ -5255,10 +5255,10 @@
         <v>154.8698944980596</v>
       </c>
       <c r="AR30" t="n">
-        <v>4.523488603937783</v>
+        <v>6.763789006554013</v>
       </c>
       <c r="AS30" t="n">
-        <v>-139.2116481270935</v>
+        <v>-214.2395339750474</v>
       </c>
       <c r="AT30" t="n">
         <v>0</v>
@@ -5267,13 +5267,13 @@
         <v>0</v>
       </c>
       <c r="AV30" t="n">
-        <v>32.5</v>
+        <v>51</v>
       </c>
       <c r="AW30" t="n">
-        <v>3.195846756292021</v>
+        <v>4.923375521068373</v>
       </c>
       <c r="AX30" t="n">
-        <v>-96.86490889167926</v>
+        <v>-152.2526314991227</v>
       </c>
       <c r="AY30" t="n">
         <v>154.8698944980596</v>
@@ -5371,32 +5371,32 @@
         <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD31" t="n">
         <v>12</v>
       </c>
       <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG31" t="n">
         <v>0</v>
       </c>
       <c r="AH31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI31" t="n">
         <v>0</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1.219491089441751</v>
+        <v>1.393704102219143</v>
       </c>
       <c r="AK31" t="n">
         <v>0</v>
       </c>
       <c r="AL31" t="n">
-        <v>-58.82589739552467</v>
+        <v>-67.22959702345675</v>
       </c>
       <c r="AM31" t="n">
         <v>0</v>
@@ -5426,13 +5426,13 @@
         <v>0</v>
       </c>
       <c r="AV31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW31" t="n">
-        <v>0.9140846901442994</v>
+        <v>1.043329553309454</v>
       </c>
       <c r="AX31" t="n">
-        <v>-59.64325411738565</v>
+        <v>-68.1676907224889</v>
       </c>
       <c r="AY31" t="n">
         <v>56.60596502168529</v>
@@ -5518,7 +5518,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>15</v>
+        <v>32.5</v>
       </c>
       <c r="Z32" t="n">
         <v>20</v>
@@ -5527,32 +5527,32 @@
         <v>0</v>
       </c>
       <c r="AB32" t="n">
-        <v>15</v>
+        <v>32.5</v>
       </c>
       <c r="AC32" t="n">
         <v>20</v>
       </c>
       <c r="AD32" t="n">
-        <v>50.25</v>
+        <v>73.875</v>
       </c>
       <c r="AE32" t="inlineStr"/>
       <c r="AF32" t="n">
-        <v>35</v>
+        <v>52.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>15</v>
+        <v>32.5</v>
       </c>
       <c r="AH32" t="n">
         <v>20</v>
       </c>
       <c r="AI32" t="n">
-        <v>2.668729448954881</v>
+        <v>5.782247139402243</v>
       </c>
       <c r="AJ32" t="n">
         <v>3.558305931939839</v>
       </c>
       <c r="AK32" t="n">
-        <v>-55.92833137070375</v>
+        <v>-121.1780513031914</v>
       </c>
       <c r="AL32" t="n">
         <v>-74.5711084942717</v>
@@ -5564,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="AO32" t="n">
-        <v>50.25</v>
+        <v>73.875</v>
       </c>
       <c r="AP32" t="n">
         <v>119.4956006323927</v>
@@ -5573,10 +5573,10 @@
         <v>119.4956006323927</v>
       </c>
       <c r="AR32" t="n">
-        <v>6.569532750579821</v>
+        <v>9.298944547003741</v>
       </c>
       <c r="AS32" t="n">
-        <v>-193.3668747643322</v>
+        <v>-285.2599329853366</v>
       </c>
       <c r="AT32" t="n">
         <v>0</v>
@@ -5585,13 +5585,13 @@
         <v>0</v>
       </c>
       <c r="AV32" t="n">
-        <v>35</v>
+        <v>52.5</v>
       </c>
       <c r="AW32" t="n">
-        <v>4.675352664710214</v>
+        <v>6.840929451655263</v>
       </c>
       <c r="AX32" t="n">
-        <v>-134.4422532395424</v>
+        <v>-202.0805483814925</v>
       </c>
       <c r="AY32" t="n">
         <v>119.4956006323927</v>
@@ -5689,32 +5689,32 @@
         <v>28</v>
       </c>
       <c r="AC33" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AD33" t="n">
         <v>60.3</v>
       </c>
       <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="AG33" t="n">
         <v>28</v>
       </c>
       <c r="AH33" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AI33" t="n">
         <v>4.04121606093515</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1.154633160267186</v>
+        <v>2.164937175500974</v>
       </c>
       <c r="AK33" t="n">
         <v>-155.5987053866749</v>
       </c>
       <c r="AL33" t="n">
-        <v>-44.45677296762139</v>
+        <v>-83.35644931429013</v>
       </c>
       <c r="AM33" t="n">
         <v>0</v>
@@ -5744,13 +5744,13 @@
         <v>0</v>
       </c>
       <c r="AV33" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="AW33" t="n">
-        <v>3.807909537596046</v>
+        <v>4.512452234954718</v>
       </c>
       <c r="AX33" t="n">
-        <v>-203.8008230496522</v>
+        <v>-243.5263251652287</v>
       </c>
       <c r="AY33" t="n">
         <v>85.64688076468973</v>
@@ -5836,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="Z34" t="n">
         <v>21.5</v>
@@ -5845,32 +5845,32 @@
         <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="AC34" t="n">
         <v>21.5</v>
       </c>
       <c r="AD34" t="n">
-        <v>53.85</v>
+        <v>103.8</v>
       </c>
       <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="n">
-        <v>37.5</v>
+        <v>74.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="AH34" t="n">
         <v>21.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>2.127734934442836</v>
+        <v>7.048121970341894</v>
       </c>
       <c r="AJ34" t="n">
         <v>2.859143818157558</v>
       </c>
       <c r="AK34" t="n">
-        <v>-49.37913073079185</v>
+        <v>-163.5683705457481</v>
       </c>
       <c r="AL34" t="n">
         <v>-66.35320691950157</v>
@@ -5882,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="AO34" t="n">
-        <v>53.85</v>
+        <v>103.8</v>
       </c>
       <c r="AP34" t="n">
         <v>146.1731955380776</v>
@@ -5891,10 +5891,10 @@
         <v>146.1731955380776</v>
       </c>
       <c r="AR34" t="n">
-        <v>5.302439938557839</v>
+        <v>9.632278155471838</v>
       </c>
       <c r="AS34" t="n">
-        <v>-170.9855561137362</v>
+        <v>-331.2457008674061</v>
       </c>
       <c r="AT34" t="n">
         <v>0</v>
@@ -5903,13 +5903,13 @@
         <v>0</v>
       </c>
       <c r="AV34" t="n">
-        <v>37.5</v>
+        <v>74.5</v>
       </c>
       <c r="AW34" t="n">
-        <v>3.754356019779202</v>
+        <v>7.170746015136052</v>
       </c>
       <c r="AX34" t="n">
-        <v>-118.9187581680896</v>
+        <v>-236.9876982070296</v>
       </c>
       <c r="AY34" t="n">
         <v>146.1731955380776</v>
@@ -6007,32 +6007,32 @@
         <v>24</v>
       </c>
       <c r="AC35" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AD35" t="n">
         <v>53.40000000000001</v>
       </c>
       <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AG35" t="n">
         <v>24</v>
       </c>
       <c r="AH35" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AI35" t="n">
         <v>4.152144339602656</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1.384048113200884</v>
+        <v>2.422084198101548</v>
       </c>
       <c r="AK35" t="n">
         <v>-198.7166411622522</v>
       </c>
       <c r="AL35" t="n">
-        <v>-66.23888038741741</v>
+        <v>-115.9180406779804</v>
       </c>
       <c r="AM35" t="n">
         <v>0</v>
@@ -6062,13 +6062,13 @@
         <v>0</v>
       </c>
       <c r="AV35" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AW35" t="n">
-        <v>4.014660037638962</v>
+        <v>4.727237582057683</v>
       </c>
       <c r="AX35" t="n">
-        <v>-269.0792740727901</v>
+        <v>-319.6518705837533</v>
       </c>
       <c r="AY35" t="n">
         <v>57.45921907137773</v>
@@ -6154,7 +6154,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>17</v>
+        <v>37.5</v>
       </c>
       <c r="Z36" t="n">
         <v>20</v>
@@ -6163,32 +6163,32 @@
         <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>17</v>
+        <v>37.5</v>
       </c>
       <c r="AC36" t="n">
         <v>20</v>
       </c>
       <c r="AD36" t="n">
-        <v>52.95</v>
+        <v>80.625</v>
       </c>
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="n">
-        <v>37</v>
+        <v>57.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>17</v>
+        <v>37.5</v>
       </c>
       <c r="AH36" t="n">
         <v>20</v>
       </c>
       <c r="AI36" t="n">
-        <v>2.260718367845512</v>
+        <v>4.986878752600398</v>
       </c>
       <c r="AJ36" t="n">
         <v>2.659668668053544</v>
       </c>
       <c r="AK36" t="n">
-        <v>-52.46532640146636</v>
+        <v>-115.7323376502934</v>
       </c>
       <c r="AL36" t="n">
         <v>-61.72391341348982</v>
@@ -6200,7 +6200,7 @@
         <v>0</v>
       </c>
       <c r="AO36" t="n">
-        <v>52.95</v>
+        <v>80.625</v>
       </c>
       <c r="AP36" t="n">
         <v>146.1731955380776</v>
@@ -6209,10 +6209,10 @@
         <v>146.1731955380776</v>
       </c>
       <c r="AR36" t="n">
-        <v>5.218722131887749</v>
+        <v>7.704022724425101</v>
       </c>
       <c r="AS36" t="n">
-        <v>-168.1157678552057</v>
+        <v>-256.6356415040949</v>
       </c>
       <c r="AT36" t="n">
         <v>0</v>
@@ -6221,13 +6221,13 @@
         <v>0</v>
       </c>
       <c r="AV36" t="n">
-        <v>37</v>
+        <v>57.5</v>
       </c>
       <c r="AW36" t="n">
-        <v>3.706125262397903</v>
+        <v>5.640124528161865</v>
       </c>
       <c r="AX36" t="n">
-        <v>-117.3287036829468</v>
+        <v>-182.6287352039752</v>
       </c>
       <c r="AY36" t="n">
         <v>146.1731955380776</v>
@@ -6325,32 +6325,32 @@
         <v>17</v>
       </c>
       <c r="AC37" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD37" t="n">
         <v>37.95</v>
       </c>
       <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG37" t="n">
         <v>17</v>
       </c>
       <c r="AH37" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI37" t="n">
         <v>2.453595465567771</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1.298962305300583</v>
+        <v>1.443291450333981</v>
       </c>
       <c r="AK37" t="n">
         <v>-94.47064255619547</v>
       </c>
       <c r="AL37" t="n">
-        <v>-50.01386958857407</v>
+        <v>-55.57096620952674</v>
       </c>
       <c r="AM37" t="n">
         <v>0</v>
@@ -6380,13 +6380,13 @@
         <v>0</v>
       </c>
       <c r="AV37" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW37" t="n">
-        <v>2.780552491621748</v>
+        <v>2.884372274805129</v>
       </c>
       <c r="AX37" t="n">
-        <v>-147.1072313809923</v>
+        <v>-152.7736358840891</v>
       </c>
       <c r="AY37" t="n">
         <v>85.64688076468973</v>
@@ -6464,7 +6464,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Z38" t="n">
         <v>0</v>
@@ -6473,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="AB38" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AC38" t="n">
         <v>0</v>
@@ -6483,22 +6483,22 @@
       </c>
       <c r="AE38" t="inlineStr"/>
       <c r="AF38" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AG38" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AH38" t="n">
         <v>0</v>
       </c>
       <c r="AI38" t="n">
-        <v>35.1574946012834</v>
+        <v>0</v>
       </c>
       <c r="AJ38" t="n">
         <v>0</v>
       </c>
       <c r="AK38" t="n">
-        <v>-10746.26865671642</v>
+        <v>0</v>
       </c>
       <c r="AL38" t="n">
         <v>0</v>
@@ -6531,7 +6531,7 @@
         <v>0</v>
       </c>
       <c r="AV38" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AW38" t="n">
         <v>0</v>
@@ -6635,38 +6635,38 @@
         <v>25</v>
       </c>
       <c r="AC39" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD39" t="n">
         <v>48.75</v>
       </c>
       <c r="AE39" t="inlineStr"/>
       <c r="AF39" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AG39" t="n">
         <v>25</v>
       </c>
       <c r="AH39" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI39" t="n">
         <v>5.560709258096802</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1.651064916936256</v>
+        <v>1.83451657437362</v>
       </c>
       <c r="AK39" t="n">
         <v>-245.730106700497</v>
       </c>
       <c r="AL39" t="n">
-        <v>-62.66370001993115</v>
+        <v>-69.62633335547908</v>
       </c>
       <c r="AM39" t="n">
         <v>0</v>
       </c>
       <c r="AN39" t="n">
-        <v>-86.81233236002917</v>
+        <v>-96.45814706669911</v>
       </c>
       <c r="AO39" t="n">
         <v>48.75</v>
@@ -6690,13 +6690,13 @@
         <v>-484.116831573502</v>
       </c>
       <c r="AV39" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AW39" t="n">
-        <v>5.382283790700332</v>
+        <v>5.53050626545958</v>
       </c>
       <c r="AX39" t="n">
-        <v>-340.2033154503435</v>
+        <v>-350.2363841760229</v>
       </c>
       <c r="AY39" t="n">
         <v>48.38127627314073</v>
@@ -6782,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="Z40" t="n">
         <v>23</v>
@@ -6791,32 +6791,32 @@
         <v>0</v>
       </c>
       <c r="AB40" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="AC40" t="n">
         <v>23</v>
       </c>
       <c r="AD40" t="n">
-        <v>60.15000000000001</v>
+        <v>108.75</v>
       </c>
       <c r="AE40" t="inlineStr"/>
       <c r="AF40" t="n">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG40" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="AH40" t="n">
         <v>23</v>
       </c>
       <c r="AI40" t="n">
-        <v>2.460459540556171</v>
+        <v>7.122382880557337</v>
       </c>
       <c r="AJ40" t="n">
         <v>2.978451022778522</v>
       </c>
       <c r="AK40" t="n">
-        <v>-55.10930788728133</v>
+        <v>-159.5269438842354</v>
       </c>
       <c r="AL40" t="n">
         <v>-66.71126744249845</v>
@@ -6828,7 +6828,7 @@
         <v>0</v>
       </c>
       <c r="AO40" t="n">
-        <v>60.15000000000001</v>
+        <v>108.75</v>
       </c>
       <c r="AP40" t="n">
         <v>154.8698944980597</v>
@@ -6837,10 +6837,10 @@
         <v>154.8698944980597</v>
       </c>
       <c r="AR40" t="n">
-        <v>5.751388747202618</v>
+        <v>9.823319849737295</v>
       </c>
       <c r="AS40" t="n">
-        <v>-179.7200658717034</v>
+        <v>-326.5325252041044</v>
       </c>
       <c r="AT40" t="n">
         <v>0</v>
@@ -6849,13 +6849,13 @@
         <v>0</v>
       </c>
       <c r="AV40" t="n">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AW40" t="n">
-        <v>4.091678384211902</v>
+        <v>7.313249034534459</v>
       </c>
       <c r="AX40" t="n">
-        <v>-125.2832752779764</v>
+        <v>-233.4535255854719</v>
       </c>
       <c r="AY40" t="n">
         <v>154.8698944980597</v>
@@ -6953,38 +6953,38 @@
         <v>12.5</v>
       </c>
       <c r="AC41" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AD41" t="n">
         <v>34.875</v>
       </c>
       <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="n">
-        <v>22.5</v>
+        <v>24.5</v>
       </c>
       <c r="AG41" t="n">
         <v>12.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI41" t="n">
         <v>2.780354629048397</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1.83451657437362</v>
+        <v>2.201419889248343</v>
       </c>
       <c r="AK41" t="n">
         <v>-122.8650533502485</v>
       </c>
       <c r="AL41" t="n">
-        <v>-69.62633335547908</v>
+        <v>-83.55160002657487</v>
       </c>
       <c r="AM41" t="n">
         <v>0</v>
       </c>
       <c r="AN41" t="n">
-        <v>-96.45814706669911</v>
+        <v>-115.7497764800389</v>
       </c>
       <c r="AO41" t="n">
         <v>34.875</v>
@@ -7008,13 +7008,13 @@
         <v>-345.849704194885</v>
       </c>
       <c r="AV41" t="n">
-        <v>22.5</v>
+        <v>24.5</v>
       </c>
       <c r="AW41" t="n">
-        <v>3.634672200281639</v>
+        <v>3.944184904711329</v>
       </c>
       <c r="AX41" t="n">
-        <v>-224.9397601182966</v>
+        <v>-244.9705319279694</v>
       </c>
       <c r="AY41" t="n">
         <v>48.38127627314073</v>
@@ -7100,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>20</v>
+        <v>82.5</v>
       </c>
       <c r="Z42" t="n">
         <v>33</v>
@@ -7109,32 +7109,32 @@
         <v>0</v>
       </c>
       <c r="AB42" t="n">
-        <v>20</v>
+        <v>82.5</v>
       </c>
       <c r="AC42" t="n">
         <v>33</v>
       </c>
       <c r="AD42" t="n">
-        <v>76.5</v>
+        <v>160.875</v>
       </c>
       <c r="AE42" t="inlineStr"/>
       <c r="AF42" t="n">
-        <v>53</v>
+        <v>115.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>20</v>
+        <v>82.5</v>
       </c>
       <c r="AH42" t="n">
         <v>33</v>
       </c>
       <c r="AI42" t="n">
-        <v>5.096840579456888</v>
+        <v>21.02446739025967</v>
       </c>
       <c r="AJ42" t="n">
         <v>6.950346260526263</v>
       </c>
       <c r="AK42" t="n">
-        <v>-94.03504548547888</v>
+        <v>-387.8945626276004</v>
       </c>
       <c r="AL42" t="n">
         <v>-116.5022656971263</v>
@@ -7146,7 +7146,7 @@
         <v>-275.429079669681</v>
       </c>
       <c r="AO42" t="n">
-        <v>76.5</v>
+        <v>160.875</v>
       </c>
       <c r="AP42" t="n">
         <v>93.12627346717684</v>
@@ -7155,25 +7155,25 @@
         <v>143.3705714436411</v>
       </c>
       <c r="AR42" t="n">
-        <v>11.03010563855859</v>
+        <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>-274.6247131132121</v>
+        <v>0</v>
       </c>
       <c r="AT42" t="n">
         <v>0</v>
       </c>
       <c r="AU42" t="n">
-        <v>-707.2602964935016</v>
+        <v>0</v>
       </c>
       <c r="AV42" t="n">
-        <v>53</v>
+        <v>115.5</v>
       </c>
       <c r="AW42" t="n">
-        <v>9.603713357995058</v>
+        <v>0</v>
       </c>
       <c r="AX42" t="n">
-        <v>-258.9374211940014</v>
+        <v>0</v>
       </c>
       <c r="AY42" t="n">
         <v>93.12627346717684</v>
@@ -7271,38 +7271,38 @@
         <v>38</v>
       </c>
       <c r="AC43" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AD43" t="n">
         <v>78.30000000000001</v>
       </c>
       <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AG43" t="n">
         <v>38</v>
       </c>
       <c r="AH43" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AI43" t="n">
         <v>7.006198118476996</v>
       </c>
       <c r="AJ43" t="n">
-        <v>1.612878653286557</v>
+        <v>2.903181575915802</v>
       </c>
       <c r="AK43" t="n">
         <v>-247.1461262243706</v>
       </c>
       <c r="AL43" t="n">
-        <v>-51.1743602048407</v>
+        <v>-92.11384836871333</v>
       </c>
       <c r="AM43" t="n">
         <v>0</v>
       </c>
       <c r="AN43" t="n">
-        <v>-71.30624156177923</v>
+        <v>-128.3512348112027</v>
       </c>
       <c r="AO43" t="n">
         <v>78.30000000000001</v>
@@ -7326,13 +7326,13 @@
         <v>-580.1680705257172</v>
       </c>
       <c r="AV43" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AW43" t="n">
-        <v>6.306002116147952</v>
+        <v>7.261005601184775</v>
       </c>
       <c r="AX43" t="n">
-        <v>-319.0367580455923</v>
+        <v>-372.5095733351541</v>
       </c>
       <c r="AY43" t="n">
         <v>72.95608409883212</v>
@@ -7418,7 +7418,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>21</v>
+        <v>108.5</v>
       </c>
       <c r="Z44" t="n">
         <v>39</v>
@@ -7427,32 +7427,32 @@
         <v>0</v>
       </c>
       <c r="AB44" t="n">
-        <v>21</v>
+        <v>108.5</v>
       </c>
       <c r="AC44" t="n">
         <v>39</v>
       </c>
       <c r="AD44" t="n">
-        <v>86.84999999999999</v>
+        <v>204.975</v>
       </c>
       <c r="AE44" t="inlineStr"/>
       <c r="AF44" t="n">
-        <v>60</v>
+        <v>147.5</v>
       </c>
       <c r="AG44" t="n">
-        <v>21</v>
+        <v>108.5</v>
       </c>
       <c r="AH44" t="n">
         <v>39</v>
       </c>
       <c r="AI44" t="n">
-        <v>2.792652101456223</v>
+        <v>14.42870252419049</v>
       </c>
       <c r="AJ44" t="n">
         <v>4.607164617995783</v>
       </c>
       <c r="AK44" t="n">
-        <v>-64.81010908416431</v>
+        <v>-334.8522302681823</v>
       </c>
       <c r="AL44" t="n">
         <v>-95.83374630093829</v>
@@ -7464,7 +7464,7 @@
         <v>-135.9990934728052</v>
       </c>
       <c r="AO44" t="n">
-        <v>86.84999999999999</v>
+        <v>204.975</v>
       </c>
       <c r="AP44" t="n">
         <v>146.1731955380777</v>
@@ -7473,25 +7473,25 @@
         <v>245.8270678494522</v>
       </c>
       <c r="AR44" t="n">
-        <v>7.421543370074385</v>
+        <v>16.09289209125226</v>
       </c>
       <c r="AS44" t="n">
-        <v>-219.0947212708398</v>
+        <v>-436.1546351677276</v>
       </c>
       <c r="AT44" t="n">
         <v>0</v>
       </c>
       <c r="AU44" t="n">
-        <v>-319.5148590400079</v>
+        <v>-1171.445463503924</v>
       </c>
       <c r="AV44" t="n">
-        <v>60</v>
+        <v>147.5</v>
       </c>
       <c r="AW44" t="n">
-        <v>5.869697334924716</v>
+        <v>0</v>
       </c>
       <c r="AX44" t="n">
-        <v>-190.6078171952237</v>
+        <v>0</v>
       </c>
       <c r="AY44" t="n">
         <v>146.1731955380777</v>
@@ -7589,38 +7589,38 @@
         <v>35</v>
       </c>
       <c r="AC45" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AD45" t="n">
         <v>74.25</v>
       </c>
       <c r="AE45" t="inlineStr"/>
       <c r="AF45" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="AG45" t="n">
         <v>35</v>
       </c>
       <c r="AH45" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AI45" t="n">
         <v>7.727408164195372</v>
       </c>
       <c r="AJ45" t="n">
-        <v>2.00949887521871</v>
+        <v>3.288270886721524</v>
       </c>
       <c r="AK45" t="n">
         <v>-338.99020179139</v>
       </c>
       <c r="AL45" t="n">
-        <v>-75.78793428838605</v>
+        <v>-124.0166197446317</v>
       </c>
       <c r="AM45" t="n">
         <v>0</v>
       </c>
       <c r="AN45" t="n">
-        <v>-105.0138634257714</v>
+        <v>-171.8408674239895</v>
       </c>
       <c r="AO45" t="n">
         <v>74.25</v>
@@ -7644,13 +7644,13 @@
         <v>-990.7799031362823</v>
       </c>
       <c r="AV45" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="AW45" t="n">
-        <v>12.69301918377483</v>
+        <v>0</v>
       </c>
       <c r="AX45" t="n">
-        <v>-440.8187116048983</v>
+        <v>0</v>
       </c>
       <c r="AY45" t="n">
         <v>49.10698046504135</v>
@@ -7736,7 +7736,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="Z46" t="n">
         <v>35</v>
@@ -7745,32 +7745,32 @@
         <v>0</v>
       </c>
       <c r="AB46" t="n">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="AC46" t="n">
         <v>35</v>
       </c>
       <c r="AD46" t="n">
-        <v>82.2</v>
+        <v>180.75</v>
       </c>
       <c r="AE46" t="inlineStr"/>
       <c r="AF46" t="n">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="AG46" t="n">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="AH46" t="n">
         <v>35</v>
       </c>
       <c r="AI46" t="n">
-        <v>2.925635534858901</v>
+        <v>12.63342617325433</v>
       </c>
       <c r="AJ46" t="n">
         <v>4.134634913585957</v>
       </c>
       <c r="AK46" t="n">
-        <v>-67.89630475483879</v>
+        <v>-293.1885887140767</v>
       </c>
       <c r="AL46" t="n">
         <v>-86.00464411622669</v>
@@ -7782,7 +7782,7 @@
         <v>-122.0504685012354</v>
       </c>
       <c r="AO46" t="n">
-        <v>82.2</v>
+        <v>180.75</v>
       </c>
       <c r="AP46" t="n">
         <v>146.1731955380777</v>
@@ -7791,25 +7791,25 @@
         <v>245.8270678494522</v>
       </c>
       <c r="AR46" t="n">
-        <v>7.057276371969566</v>
+        <v>14.21365141289037</v>
       </c>
       <c r="AS46" t="n">
-        <v>-207.296728661655</v>
+        <v>-435.164473622072</v>
       </c>
       <c r="AT46" t="n">
         <v>0</v>
       </c>
       <c r="AU46" t="n">
-        <v>-302.2323125450566</v>
+        <v>-785.9911618138428</v>
       </c>
       <c r="AV46" t="n">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="AW46" t="n">
-        <v>5.594041618562041</v>
+        <v>11.62458913017307</v>
       </c>
       <c r="AX46" t="n">
-        <v>-181.0333406634758</v>
+        <v>-416.1674137707515</v>
       </c>
       <c r="AY46" t="n">
         <v>146.1731955380777</v>
@@ -7907,38 +7907,38 @@
         <v>27</v>
       </c>
       <c r="AC47" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD47" t="n">
         <v>55.95</v>
       </c>
       <c r="AE47" t="inlineStr"/>
       <c r="AF47" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG47" t="n">
         <v>27</v>
       </c>
       <c r="AH47" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI47" t="n">
         <v>4.978088580296468</v>
       </c>
       <c r="AJ47" t="n">
-        <v>1.774166518615212</v>
+        <v>2.096742249272524</v>
       </c>
       <c r="AK47" t="n">
         <v>-175.6038237042838</v>
       </c>
       <c r="AL47" t="n">
-        <v>-56.29179622532477</v>
+        <v>-66.52666826629292</v>
       </c>
       <c r="AM47" t="n">
         <v>0</v>
       </c>
       <c r="AN47" t="n">
-        <v>-78.43686571795718</v>
+        <v>-92.69811403031302</v>
       </c>
       <c r="AO47" t="n">
         <v>55.95</v>
@@ -7962,13 +7962,13 @@
         <v>-413.4868725518656</v>
       </c>
       <c r="AV47" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AW47" t="n">
-        <v>5.071029811676983</v>
+        <v>5.321810635759063</v>
       </c>
       <c r="AX47" t="n">
-        <v>-252.3296447713298</v>
+        <v>-265.6565779920823</v>
       </c>
       <c r="AY47" t="n">
         <v>72.95608409883212</v>
@@ -8046,7 +8046,7 @@
         <v>0</v>
       </c>
       <c r="Y48" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Z48" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>0</v>
       </c>
       <c r="AB48" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AC48" t="n">
         <v>0</v>
@@ -8065,22 +8065,22 @@
       </c>
       <c r="AE48" t="inlineStr"/>
       <c r="AF48" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AG48" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AH48" t="n">
         <v>0</v>
       </c>
       <c r="AI48" t="n">
-        <v>44.92346532386222</v>
+        <v>0</v>
       </c>
       <c r="AJ48" t="n">
         <v>0</v>
       </c>
       <c r="AK48" t="n">
-        <v>-13731.34328358209</v>
+        <v>0</v>
       </c>
       <c r="AL48" t="n">
         <v>0</v>
@@ -8113,7 +8113,7 @@
         <v>0</v>
       </c>
       <c r="AV48" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AW48" t="n">
         <v>0</v>
@@ -8217,38 +8217,38 @@
         <v>36</v>
       </c>
       <c r="AC49" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD49" t="n">
         <v>68.09999999999999</v>
       </c>
       <c r="AE49" t="inlineStr"/>
       <c r="AF49" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG49" t="n">
         <v>36</v>
       </c>
       <c r="AH49" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI49" t="n">
         <v>7.735996536985726</v>
       </c>
       <c r="AJ49" t="n">
-        <v>1.43344899814519</v>
+        <v>1.552903081323955</v>
       </c>
       <c r="AK49" t="n">
         <v>-530.2640501028666</v>
       </c>
       <c r="AL49" t="n">
-        <v>-57.81929584259283</v>
+        <v>-62.63757049614227</v>
       </c>
       <c r="AM49" t="n">
         <v>0</v>
       </c>
       <c r="AN49" t="n">
-        <v>-77.62414170910397</v>
+        <v>-84.0928201848627</v>
       </c>
       <c r="AO49" t="n">
         <v>68.09999999999999</v>
@@ -8272,7 +8272,7 @@
         <v>-449.7854817163166</v>
       </c>
       <c r="AV49" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AW49" t="n">
         <v>0</v>
@@ -8364,7 +8364,7 @@
         <v>0</v>
       </c>
       <c r="Y50" t="n">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="Z50" t="n">
         <v>34</v>
@@ -8373,32 +8373,32 @@
         <v>0</v>
       </c>
       <c r="AB50" t="n">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="AC50" t="n">
         <v>34</v>
       </c>
       <c r="AD50" t="n">
-        <v>83.40000000000001</v>
+        <v>192.75</v>
       </c>
       <c r="AE50" t="inlineStr"/>
       <c r="AF50" t="n">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="AG50" t="n">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="AH50" t="n">
         <v>34</v>
       </c>
       <c r="AI50" t="n">
-        <v>2.897144066972906</v>
+        <v>12.67500529300647</v>
       </c>
       <c r="AJ50" t="n">
         <v>3.762045565994279</v>
       </c>
       <c r="AK50" t="n">
-        <v>-68.34704428060436</v>
+        <v>-299.018318727644</v>
       </c>
       <c r="AL50" t="n">
         <v>-83.62744406209285</v>
@@ -8410,7 +8410,7 @@
         <v>-137.9899061489873</v>
       </c>
       <c r="AO50" t="n">
-        <v>83.40000000000001</v>
+        <v>192.75</v>
       </c>
       <c r="AP50" t="n">
         <v>158.729491119076</v>
@@ -8419,25 +8419,25 @@
         <v>214.0908998344469</v>
       </c>
       <c r="AR50" t="n">
-        <v>6.708949371758772</v>
+        <v>15.09619435257557</v>
       </c>
       <c r="AS50" t="n">
-        <v>-210.2142722760034</v>
+        <v>-435.9856865778876</v>
       </c>
       <c r="AT50" t="n">
         <v>0</v>
       </c>
       <c r="AU50" t="n">
-        <v>-360.0102168794926</v>
+        <v>-1288.296770638319</v>
       </c>
       <c r="AV50" t="n">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="AW50" t="n">
-        <v>5.181177910985824</v>
+        <v>11.3332737886501</v>
       </c>
       <c r="AX50" t="n">
-        <v>-169.9083300117832</v>
+        <v>-410.2323945946432</v>
       </c>
       <c r="AY50" t="n">
         <v>158.729491119076</v>
@@ -8535,38 +8535,38 @@
         <v>32</v>
       </c>
       <c r="AC51" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AD51" t="n">
         <v>65.7</v>
       </c>
       <c r="AE51" t="inlineStr"/>
       <c r="AF51" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AG51" t="n">
         <v>32</v>
       </c>
       <c r="AH51" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AI51" t="n">
         <v>6.87644136620952</v>
       </c>
       <c r="AJ51" t="n">
-        <v>1.43344899814519</v>
+        <v>1.791811247681486</v>
       </c>
       <c r="AK51" t="n">
         <v>-471.3458223136592</v>
       </c>
       <c r="AL51" t="n">
-        <v>-57.81929584259283</v>
+        <v>-72.27411980324106</v>
       </c>
       <c r="AM51" t="n">
         <v>0</v>
       </c>
       <c r="AN51" t="n">
-        <v>-77.62414170910397</v>
+        <v>-97.03017713638</v>
       </c>
       <c r="AO51" t="n">
         <v>65.7</v>
@@ -8590,7 +8590,7 @@
         <v>-433.8799970212563</v>
       </c>
       <c r="AV51" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AW51" t="n">
         <v>0</v>
@@ -8682,7 +8682,7 @@
         <v>0</v>
       </c>
       <c r="Y52" t="n">
-        <v>25</v>
+        <v>106.5</v>
       </c>
       <c r="Z52" t="n">
         <v>38</v>
@@ -8691,32 +8691,32 @@
         <v>0</v>
       </c>
       <c r="AB52" t="n">
-        <v>25</v>
+        <v>106.5</v>
       </c>
       <c r="AC52" t="n">
         <v>38</v>
       </c>
       <c r="AD52" t="n">
-        <v>90.75</v>
+        <v>200.775</v>
       </c>
       <c r="AE52" t="inlineStr"/>
       <c r="AF52" t="n">
-        <v>63</v>
+        <v>144.5</v>
       </c>
       <c r="AG52" t="n">
-        <v>25</v>
+        <v>106.5</v>
       </c>
       <c r="AH52" t="n">
         <v>38</v>
       </c>
       <c r="AI52" t="n">
-        <v>2.856439137049364</v>
+        <v>12.16843072383028</v>
       </c>
       <c r="AJ52" t="n">
         <v>4.02828311488251</v>
       </c>
       <c r="AK52" t="n">
-        <v>-62.59465115808231</v>
+        <v>-266.6532139334306</v>
       </c>
       <c r="AL52" t="n">
         <v>-83.49653390007643</v>
@@ -8728,7 +8728,7 @@
         <v>-138.5135746626847</v>
       </c>
       <c r="AO52" t="n">
-        <v>90.75</v>
+        <v>200.775</v>
       </c>
       <c r="AP52" t="n">
         <v>178.9239347416511</v>
@@ -8737,25 +8737,25 @@
         <v>233.9639495475097</v>
       </c>
       <c r="AR52" t="n">
-        <v>6.998266909845898</v>
+        <v>14.42297085382179</v>
       </c>
       <c r="AS52" t="n">
-        <v>-204.777775471076</v>
+        <v>-435.3003440273782</v>
       </c>
       <c r="AT52" t="n">
         <v>0</v>
       </c>
       <c r="AU52" t="n">
-        <v>-353.6400248552026</v>
+        <v>-990.1009677312362</v>
       </c>
       <c r="AV52" t="n">
-        <v>63</v>
+        <v>144.5</v>
       </c>
       <c r="AW52" t="n">
-        <v>5.346238475837852</v>
+        <v>11.2462283714495</v>
       </c>
       <c r="AX52" t="n">
-        <v>-162.5163211350428</v>
+        <v>-375.5162935300705</v>
       </c>
       <c r="AY52" t="n">
         <v>178.9239347416511</v>
@@ -8853,38 +8853,38 @@
         <v>38</v>
       </c>
       <c r="AC53" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AD53" t="n">
         <v>76.80000000000001</v>
       </c>
       <c r="AE53" t="inlineStr"/>
       <c r="AF53" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AG53" t="n">
         <v>38</v>
       </c>
       <c r="AH53" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AI53" t="n">
         <v>8.165774122373801</v>
       </c>
       <c r="AJ53" t="n">
-        <v>1.552903081323955</v>
+        <v>2.030719414039019</v>
       </c>
       <c r="AK53" t="n">
         <v>-559.7231639974704</v>
       </c>
       <c r="AL53" t="n">
-        <v>-62.63757049614227</v>
+        <v>-81.91066911033991</v>
       </c>
       <c r="AM53" t="n">
         <v>0</v>
       </c>
       <c r="AN53" t="n">
-        <v>-84.0928201848627</v>
+        <v>-109.9675340878974</v>
       </c>
       <c r="AO53" t="n">
         <v>76.80000000000001</v>
@@ -8908,7 +8908,7 @@
         <v>-507.4792955339738</v>
       </c>
       <c r="AV53" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AW53" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="Y54" t="n">
-        <v>26</v>
+        <v>118.5</v>
       </c>
       <c r="Z54" t="n">
         <v>42.5</v>
@@ -9009,32 +9009,32 @@
         <v>0</v>
       </c>
       <c r="AB54" t="n">
-        <v>26</v>
+        <v>118.5</v>
       </c>
       <c r="AC54" t="n">
         <v>42.5</v>
       </c>
       <c r="AD54" t="n">
-        <v>98.84999999999999</v>
+        <v>223.725</v>
       </c>
       <c r="AE54" t="inlineStr"/>
       <c r="AF54" t="n">
-        <v>68.5</v>
+        <v>161</v>
       </c>
       <c r="AG54" t="n">
-        <v>26</v>
+        <v>118.5</v>
       </c>
       <c r="AH54" t="n">
         <v>42.5</v>
       </c>
       <c r="AI54" t="n">
-        <v>3.604615905450921</v>
+        <v>16.42873018445901</v>
       </c>
       <c r="AJ54" t="n">
         <v>4.82507536050297</v>
       </c>
       <c r="AK54" t="n">
-        <v>-81.02636349006049</v>
+        <v>-369.2932335989296</v>
       </c>
       <c r="AL54" t="n">
         <v>-95.41118435766691</v>
@@ -9046,7 +9046,7 @@
         <v>-176.3920438551602</v>
       </c>
       <c r="AO54" t="n">
-        <v>98.84999999999999</v>
+        <v>223.725</v>
       </c>
       <c r="AP54" t="n">
         <v>144.2183705744448</v>
@@ -9055,25 +9055,25 @@
         <v>259.9862577811403</v>
       </c>
       <c r="AR54" t="n">
-        <v>8.022716745432415</v>
+        <v>15.94265866493744</v>
       </c>
       <c r="AS54" t="n">
-        <v>-225.6240938557376</v>
+        <v>-435.7266847489232</v>
       </c>
       <c r="AT54" t="n">
         <v>0</v>
       </c>
       <c r="AU54" t="n">
-        <v>-439.4695225438953</v>
+        <v>-1336.763144406537</v>
       </c>
       <c r="AV54" t="n">
-        <v>68.5</v>
+        <v>161</v>
       </c>
       <c r="AW54" t="n">
-        <v>6.905770874752275</v>
+        <v>0</v>
       </c>
       <c r="AX54" t="n">
-        <v>-220.2007483745161</v>
+        <v>0</v>
       </c>
       <c r="AY54" t="n">
         <v>144.2183705744448</v>
@@ -9171,38 +9171,38 @@
         <v>41</v>
       </c>
       <c r="AC55" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AD55" t="n">
         <v>82.34999999999999</v>
       </c>
       <c r="AE55" t="inlineStr"/>
       <c r="AF55" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="AG55" t="n">
         <v>41</v>
       </c>
       <c r="AH55" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AI55" t="n">
         <v>8.810440500455963</v>
       </c>
       <c r="AJ55" t="n">
-        <v>1.552903081323955</v>
+        <v>2.150173497217785</v>
       </c>
       <c r="AK55" t="n">
         <v>-603.9118348393758</v>
       </c>
       <c r="AL55" t="n">
-        <v>-62.63757049614227</v>
+        <v>-86.72894376388932</v>
       </c>
       <c r="AM55" t="n">
         <v>0</v>
       </c>
       <c r="AN55" t="n">
-        <v>-84.0928201848627</v>
+        <v>-116.4362125636561</v>
       </c>
       <c r="AO55" t="n">
         <v>82.34999999999999</v>
@@ -9226,7 +9226,7 @@
         <v>-544.3144985972706</v>
       </c>
       <c r="AV55" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="AW55" t="n">
         <v>0</v>
@@ -9318,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="Y56" t="n">
-        <v>27</v>
+        <v>118.5</v>
       </c>
       <c r="Z56" t="n">
         <v>42.5</v>
@@ -9327,32 +9327,32 @@
         <v>0</v>
       </c>
       <c r="AB56" t="n">
-        <v>27</v>
+        <v>118.5</v>
       </c>
       <c r="AC56" t="n">
         <v>42.5</v>
       </c>
       <c r="AD56" t="n">
-        <v>100.2</v>
+        <v>223.725</v>
       </c>
       <c r="AE56" t="inlineStr"/>
       <c r="AF56" t="n">
-        <v>69.5</v>
+        <v>161</v>
       </c>
       <c r="AG56" t="n">
-        <v>27</v>
+        <v>118.5</v>
       </c>
       <c r="AH56" t="n">
         <v>42.5</v>
       </c>
       <c r="AI56" t="n">
-        <v>3.259287075344518</v>
+        <v>14.30464883067873</v>
       </c>
       <c r="AJ56" t="n">
         <v>4.374919936008514</v>
       </c>
       <c r="AK56" t="n">
-        <v>-76.89042481567992</v>
+        <v>-337.463531135484</v>
       </c>
       <c r="AL56" t="n">
         <v>-91.89996180873605</v>
@@ -9364,7 +9364,7 @@
         <v>-152.2943514707882</v>
       </c>
       <c r="AO56" t="n">
-        <v>100.2</v>
+        <v>223.725</v>
       </c>
       <c r="AP56" t="n">
         <v>158.729491119076</v>
@@ -9373,25 +9373,25 @@
         <v>273.886487091536</v>
       </c>
       <c r="AR56" t="n">
-        <v>7.428981157640838</v>
+        <v>15.21020600202636</v>
       </c>
       <c r="AS56" t="n">
-        <v>-221.2060923625426</v>
+        <v>-435.6301393889164</v>
       </c>
       <c r="AT56" t="n">
         <v>0</v>
       </c>
       <c r="AU56" t="n">
-        <v>-381.674838275318</v>
+        <v>-1140.860081773624</v>
       </c>
       <c r="AV56" t="n">
-        <v>69.5</v>
+        <v>161</v>
       </c>
       <c r="AW56" t="n">
-        <v>6.139680744985016</v>
+        <v>0</v>
       </c>
       <c r="AX56" t="n">
-        <v>-203.7712082198664</v>
+        <v>0</v>
       </c>
       <c r="AY56" t="n">
         <v>158.729491119076</v>
@@ -9489,38 +9489,38 @@
         <v>41</v>
       </c>
       <c r="AC57" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AD57" t="n">
         <v>82.34999999999999</v>
       </c>
       <c r="AE57" t="inlineStr"/>
       <c r="AF57" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AG57" t="n">
         <v>41</v>
       </c>
       <c r="AH57" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AI57" t="n">
         <v>8.810440500455963</v>
       </c>
       <c r="AJ57" t="n">
-        <v>1.672357164502722</v>
+        <v>2.150173497217785</v>
       </c>
       <c r="AK57" t="n">
         <v>-603.9118348393758</v>
       </c>
       <c r="AL57" t="n">
-        <v>-67.4558451496917</v>
+        <v>-86.72894376388932</v>
       </c>
       <c r="AM57" t="n">
         <v>0</v>
       </c>
       <c r="AN57" t="n">
-        <v>-90.56149866062137</v>
+        <v>-116.4362125636561</v>
       </c>
       <c r="AO57" t="n">
         <v>82.34999999999999</v>
@@ -9544,7 +9544,7 @@
         <v>-544.3144985972706</v>
       </c>
       <c r="AV57" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AW57" t="n">
         <v>0</v>
@@ -9636,7 +9636,7 @@
         <v>0</v>
       </c>
       <c r="Y58" t="n">
-        <v>28</v>
+        <v>118.5</v>
       </c>
       <c r="Z58" t="n">
         <v>42.5</v>
@@ -9645,32 +9645,32 @@
         <v>0</v>
       </c>
       <c r="AB58" t="n">
-        <v>28</v>
+        <v>118.5</v>
       </c>
       <c r="AC58" t="n">
         <v>42.5</v>
       </c>
       <c r="AD58" t="n">
-        <v>101.55</v>
+        <v>223.725</v>
       </c>
       <c r="AE58" t="inlineStr"/>
       <c r="AF58" t="n">
-        <v>70.5</v>
+        <v>161</v>
       </c>
       <c r="AG58" t="n">
-        <v>28</v>
+        <v>118.5</v>
       </c>
       <c r="AH58" t="n">
         <v>42.5</v>
       </c>
       <c r="AI58" t="n">
-        <v>3.199211833495286</v>
+        <v>13.53952150961398</v>
       </c>
       <c r="AJ58" t="n">
         <v>4.505316536857312</v>
       </c>
       <c r="AK58" t="n">
-        <v>-70.10600929705217</v>
+        <v>-296.69864648931</v>
       </c>
       <c r="AL58" t="n">
         <v>-93.38428201113994</v>
@@ -9682,7 +9682,7 @@
         <v>-154.9164987252325</v>
       </c>
       <c r="AO58" t="n">
-        <v>101.55</v>
+        <v>223.725</v>
       </c>
       <c r="AP58" t="n">
         <v>178.9239347416511</v>
@@ -9691,25 +9691,25 @@
         <v>233.9639495475097</v>
       </c>
       <c r="AR58" t="n">
-        <v>7.754377112159917</v>
+        <v>16.34016654266242</v>
       </c>
       <c r="AS58" t="n">
-        <v>-229.3070080325159</v>
+        <v>-436.6273044817244</v>
       </c>
       <c r="AT58" t="n">
         <v>0</v>
       </c>
       <c r="AU58" t="n">
-        <v>-396.3149974284215</v>
+        <v>-1586.441308526227</v>
       </c>
       <c r="AV58" t="n">
-        <v>70.5</v>
+        <v>161</v>
       </c>
       <c r="AW58" t="n">
-        <v>5.941250132544514</v>
+        <v>12.26641112513158</v>
       </c>
       <c r="AX58" t="n">
-        <v>-181.9739786158212</v>
+        <v>-419.1302823761034</v>
       </c>
       <c r="AY58" t="n">
         <v>178.9239347416511</v>
@@ -9807,38 +9807,38 @@
         <v>41</v>
       </c>
       <c r="AC59" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AD59" t="n">
         <v>82.34999999999999</v>
       </c>
       <c r="AE59" t="inlineStr"/>
       <c r="AF59" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AG59" t="n">
         <v>41</v>
       </c>
       <c r="AH59" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AI59" t="n">
         <v>8.810440500455963</v>
       </c>
       <c r="AJ59" t="n">
-        <v>1.672357164502722</v>
+        <v>2.150173497217785</v>
       </c>
       <c r="AK59" t="n">
         <v>-603.9118348393758</v>
       </c>
       <c r="AL59" t="n">
-        <v>-67.4558451496917</v>
+        <v>-86.72894376388932</v>
       </c>
       <c r="AM59" t="n">
         <v>0</v>
       </c>
       <c r="AN59" t="n">
-        <v>-90.56149866062137</v>
+        <v>-116.4362125636561</v>
       </c>
       <c r="AO59" t="n">
         <v>82.34999999999999</v>
@@ -9862,7 +9862,7 @@
         <v>-544.3144985972706</v>
       </c>
       <c r="AV59" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AW59" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="Y60" t="n">
-        <v>29</v>
+        <v>118.5</v>
       </c>
       <c r="Z60" t="n">
         <v>42.5</v>
@@ -9963,32 +9963,32 @@
         <v>0</v>
       </c>
       <c r="AB60" t="n">
-        <v>29</v>
+        <v>118.5</v>
       </c>
       <c r="AC60" t="n">
         <v>42.5</v>
       </c>
       <c r="AD60" t="n">
-        <v>102.9</v>
+        <v>223.725</v>
       </c>
       <c r="AE60" t="inlineStr"/>
       <c r="AF60" t="n">
-        <v>71.5</v>
+        <v>161</v>
       </c>
       <c r="AG60" t="n">
-        <v>29</v>
+        <v>118.5</v>
       </c>
       <c r="AH60" t="n">
         <v>42.5</v>
       </c>
       <c r="AI60" t="n">
-        <v>4.227895674375356</v>
+        <v>17.2760564625338</v>
       </c>
       <c r="AJ60" t="n">
         <v>6.196054005550092</v>
       </c>
       <c r="AK60" t="n">
-        <v>-128.2668009880119</v>
+        <v>-524.1246867958419</v>
       </c>
       <c r="AL60" t="n">
         <v>-187.9772083445002</v>
@@ -10000,7 +10000,7 @@
         <v>0</v>
       </c>
       <c r="AO60" t="n">
-        <v>102.9</v>
+        <v>223.725</v>
       </c>
       <c r="AP60" t="n">
         <v>105.1896123745755</v>
@@ -10009,10 +10009,10 @@
         <v>105.1896123745755</v>
       </c>
       <c r="AR60" t="n">
-        <v>16.66666666666667</v>
+        <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>-447.3876842989648</v>
+        <v>0</v>
       </c>
       <c r="AT60" t="n">
         <v>0</v>
@@ -10021,13 +10021,13 @@
         <v>0</v>
       </c>
       <c r="AV60" t="n">
-        <v>71.5</v>
+        <v>161</v>
       </c>
       <c r="AW60" t="n">
-        <v>7.39822818645627</v>
+        <v>0</v>
       </c>
       <c r="AX60" t="n">
-        <v>-324.2688056078905</v>
+        <v>0</v>
       </c>
       <c r="AY60" t="n">
         <v>105.1896123745755</v>

--- a/Calculs/PH4/DataBase_PH4_FileB_V6_results.xlsx
+++ b/Calculs/PH4/DataBase_PH4_FileB_V6_results.xlsx
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V3" t="n">
         <v>26</v>
@@ -954,19 +954,19 @@
         <v>2.79355430502262</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3.431160559105005</v>
+        <v>3.31054836624937</v>
       </c>
       <c r="AK3" t="n">
         <v>-191.484240314924</v>
       </c>
       <c r="AL3" t="n">
-        <v>-172.7985472420537</v>
+        <v>-161.5247230921665</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>-230.8518272262002</v>
+        <v>-215.927911152445</v>
       </c>
       <c r="AO3" t="n">
         <v>50.1</v>
@@ -975,19 +975,19 @@
         <v>32.17518292460515</v>
       </c>
       <c r="AQ3" t="n">
-        <v>120.6919328462473</v>
+        <v>133.3926649094985</v>
       </c>
       <c r="AR3" t="n">
-        <v>5.309301013709344</v>
+        <v>5.136861667834501</v>
       </c>
       <c r="AS3" t="n">
-        <v>-380.020165398479</v>
+        <v>-355.211361138398</v>
       </c>
       <c r="AT3" t="n">
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>-512.270638475866</v>
+        <v>-479.2596828788747</v>
       </c>
       <c r="AV3" t="n">
         <v>36</v>
@@ -1055,13 +1055,13 @@
         <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0006157892413793104</v>
+        <v>0.0001539</v>
       </c>
       <c r="Q4" t="n">
         <v>0.04</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>75</v>
       </c>
       <c r="AI4" t="n">
-        <v>8.760804740975466</v>
+        <v>8.76080474097548</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.944712585508775</v>
+        <v>9.945499153554026</v>
       </c>
       <c r="AK4" t="n">
-        <v>-240.1104675187085</v>
+        <v>-240.1104675187086</v>
       </c>
       <c r="AL4" t="n">
-        <v>-202.7091087947685</v>
+        <v>-202.7402701650731</v>
       </c>
       <c r="AM4" t="n">
-        <v>-309.0685784990582</v>
+        <v>-309.1142035860904</v>
       </c>
       <c r="AN4" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>86.17590767108317</v>
       </c>
       <c r="AQ4" t="n">
-        <v>138.619928147171</v>
+        <v>138.6041826780107</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1152,13 +1152,13 @@
         <v>120</v>
       </c>
       <c r="AW4" t="n">
-        <v>11.52301246329038</v>
+        <v>11.52408541918718</v>
       </c>
       <c r="AX4" t="n">
-        <v>-382.7235104152917</v>
+        <v>-382.8077144983416</v>
       </c>
       <c r="AY4" t="n">
-        <v>138.619928147171</v>
+        <v>138.6041826780107</v>
       </c>
     </row>
     <row r="5">
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V5" t="n">
         <v>37</v>
@@ -1272,19 +1272,19 @@
         <v>3.975442664839878</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4.001711786488657</v>
+        <v>4.096877557177107</v>
       </c>
       <c r="AK5" t="n">
         <v>-272.4968035250843</v>
       </c>
       <c r="AL5" t="n">
-        <v>-161.4122008939051</v>
+        <v>-168.9544527642238</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>-216.7007289379154</v>
+        <v>-226.7041846172856</v>
       </c>
       <c r="AO5" t="n">
         <v>72.45</v>
@@ -1293,19 +1293,19 @@
         <v>32.17518292460515</v>
       </c>
       <c r="AQ5" t="n">
-        <v>221.1742373319743</v>
+        <v>208.848297344213</v>
       </c>
       <c r="AR5" t="n">
-        <v>6.11471578431295</v>
+        <v>6.240186325702727</v>
       </c>
       <c r="AS5" t="n">
-        <v>-352.4195330379459</v>
+        <v>-368.9692426914008</v>
       </c>
       <c r="AT5" t="n">
         <v>0</v>
       </c>
       <c r="AU5" t="n">
-        <v>-478.6251841400194</v>
+        <v>-500.6950823327754</v>
       </c>
       <c r="AV5" t="n">
         <v>52</v>
@@ -1373,13 +1373,13 @@
         <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0006157892413793104</v>
+        <v>0.0002011</v>
       </c>
       <c r="Q6" t="n">
         <v>0.04</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1431,16 +1431,16 @@
         <v>8.310001842737773</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11.10423205716835</v>
+        <v>9.566304635005112</v>
       </c>
       <c r="AK6" t="n">
         <v>-252.1106088385061</v>
       </c>
       <c r="AL6" t="n">
-        <v>-263.3246690782141</v>
+        <v>-191.7696345912739</v>
       </c>
       <c r="AM6" t="n">
-        <v>-318.9716560345627</v>
+        <v>-233.8620951164615</v>
       </c>
       <c r="AN6" t="n">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>105.1896123745755</v>
       </c>
       <c r="AQ6" t="n">
-        <v>157.0991509133779</v>
+        <v>204.844926627771</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -1470,13 +1470,13 @@
         <v>154.5</v>
       </c>
       <c r="AW6" t="n">
-        <v>16.66666666666667</v>
+        <v>10.44856866323505</v>
       </c>
       <c r="AX6" t="n">
-        <v>-442.7180843271402</v>
+        <v>-310.4827288180098</v>
       </c>
       <c r="AY6" t="n">
-        <v>157.0991509133779</v>
+        <v>204.844926627771</v>
       </c>
     </row>
     <row r="7">
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V7" t="n">
         <v>37</v>
@@ -1559,74 +1559,74 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>37</v>
+        <v>39.975</v>
       </c>
       <c r="Z7" t="n">
-        <v>17</v>
+        <v>18.075</v>
       </c>
       <c r="AA7" t="n">
         <v>0.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>18.5</v>
+        <v>19.9875</v>
       </c>
       <c r="AC7" t="n">
-        <v>35.5</v>
+        <v>38.0625</v>
       </c>
       <c r="AD7" t="n">
-        <v>75.45</v>
+        <v>81.07875</v>
       </c>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="n">
-        <v>54</v>
+        <v>58.05</v>
       </c>
       <c r="AG7" t="n">
-        <v>18.5</v>
+        <v>19.9875</v>
       </c>
       <c r="AH7" t="n">
-        <v>35.5</v>
+        <v>38.0625</v>
       </c>
       <c r="AI7" t="n">
-        <v>3.975442664839878</v>
+        <v>4.295089743972282</v>
       </c>
       <c r="AJ7" t="n">
-        <v>4.240619952846188</v>
+        <v>4.654847821494138</v>
       </c>
       <c r="AK7" t="n">
-        <v>-272.4968035250843</v>
+        <v>-294.4070194841957</v>
       </c>
       <c r="AL7" t="n">
-        <v>-171.0487502010038</v>
+        <v>-191.9650405474111</v>
       </c>
       <c r="AM7" t="n">
         <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>-229.6380858894327</v>
+        <v>-257.5799411043414</v>
       </c>
       <c r="AO7" t="n">
-        <v>75.45</v>
+        <v>81.07875</v>
       </c>
       <c r="AP7" t="n">
         <v>32.17518292460515</v>
       </c>
       <c r="AQ7" t="n">
-        <v>221.1742373319743</v>
+        <v>208.848297344213</v>
       </c>
       <c r="AR7" t="n">
-        <v>6.348208820294586</v>
+        <v>6.918561266574919</v>
       </c>
       <c r="AS7" t="n">
-        <v>-367.0476662656545</v>
+        <v>-413.0380363009018</v>
       </c>
       <c r="AT7" t="n">
         <v>0</v>
       </c>
       <c r="AU7" t="n">
-        <v>-498.523013684633</v>
+        <v>-560.596935367996</v>
       </c>
       <c r="AV7" t="n">
-        <v>54</v>
+        <v>58.05</v>
       </c>
       <c r="AW7" t="n">
         <v>0</v>
@@ -1691,13 +1691,13 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0009236838620689655</v>
+        <v>0.0003142</v>
       </c>
       <c r="Q8" t="n">
         <v>0.04</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1715,86 +1715,86 @@
         <v>43</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="Y8" t="n">
-        <v>119</v>
+        <v>113.05</v>
       </c>
       <c r="Z8" t="n">
-        <v>43</v>
+        <v>40.85</v>
       </c>
       <c r="AA8" t="n">
         <v>0.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>59.5</v>
+        <v>56.525</v>
       </c>
       <c r="AC8" t="n">
-        <v>102.5</v>
+        <v>97.375</v>
       </c>
       <c r="AD8" t="n">
-        <v>225.15</v>
+        <v>213.8925</v>
       </c>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="n">
-        <v>162</v>
+        <v>153.9</v>
       </c>
       <c r="AG8" t="n">
-        <v>59.5</v>
+        <v>56.525</v>
       </c>
       <c r="AH8" t="n">
-        <v>102.5</v>
+        <v>97.375</v>
       </c>
       <c r="AI8" t="n">
-        <v>9.843828288999681</v>
+        <v>9.351637483587213</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11.25624639469534</v>
+        <v>8.699251489859948</v>
       </c>
       <c r="AK8" t="n">
-        <v>-347.9126566304043</v>
+        <v>-330.5170199078444</v>
       </c>
       <c r="AL8" t="n">
-        <v>-264.1788581769078</v>
+        <v>-158.7072648667184</v>
       </c>
       <c r="AM8" t="n">
-        <v>-320.1291953617903</v>
+        <v>-194.3711086355824</v>
       </c>
       <c r="AN8" t="n">
         <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>225.15</v>
+        <v>213.8925</v>
       </c>
       <c r="AP8" t="n">
         <v>81.16433098054297</v>
       </c>
       <c r="AQ8" t="n">
-        <v>159.7161898918707</v>
+        <v>236.5776259613831</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>12.91846273421575</v>
       </c>
       <c r="AS8" t="n">
-        <v>0</v>
+        <v>-381.5385257357327</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>-434.9476891872415</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
       </c>
       <c r="AV8" t="n">
-        <v>162</v>
+        <v>153.9</v>
       </c>
       <c r="AW8" t="n">
-        <v>0</v>
+        <v>9.652501903264438</v>
       </c>
       <c r="AX8" t="n">
-        <v>0</v>
+        <v>-254.8294745519522</v>
       </c>
       <c r="AY8" t="n">
-        <v>159.7161898918707</v>
+        <v>236.5776259613831</v>
       </c>
     </row>
     <row r="9">
@@ -1865,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V9" t="n">
         <v>41</v>
@@ -1877,74 +1877,74 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>41</v>
+        <v>40.9125</v>
       </c>
       <c r="Z9" t="n">
-        <v>18</v>
+        <v>18.175</v>
       </c>
       <c r="AA9" t="n">
         <v>0.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>20.5</v>
+        <v>20.45625</v>
       </c>
       <c r="AC9" t="n">
-        <v>38.5</v>
+        <v>38.63125</v>
       </c>
       <c r="AD9" t="n">
-        <v>82.34999999999999</v>
+        <v>82.49437500000001</v>
       </c>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="n">
-        <v>59</v>
+        <v>59.08750000000001</v>
       </c>
       <c r="AG9" t="n">
-        <v>20.5</v>
+        <v>20.45625</v>
       </c>
       <c r="AH9" t="n">
-        <v>38.5</v>
+        <v>38.63125</v>
       </c>
       <c r="AI9" t="n">
-        <v>4.405220250227974</v>
+        <v>4.395818865547618</v>
       </c>
       <c r="AJ9" t="n">
-        <v>4.598982202382482</v>
+        <v>4.724403018826814</v>
       </c>
       <c r="AK9" t="n">
-        <v>-301.9559174196879</v>
+        <v>-301.3114993032435</v>
       </c>
       <c r="AL9" t="n">
-        <v>-185.5035741616522</v>
+        <v>-194.8334836820277</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>-249.0441213167088</v>
+        <v>-261.4288367760155</v>
       </c>
       <c r="AO9" t="n">
-        <v>82.34999999999999</v>
+        <v>82.49437500000001</v>
       </c>
       <c r="AP9" t="n">
         <v>32.17518292460515</v>
       </c>
       <c r="AQ9" t="n">
-        <v>221.1742373319743</v>
+        <v>208.848297344213</v>
       </c>
       <c r="AR9" t="n">
-        <v>6.878795651953535</v>
+        <v>7.028423742567508</v>
       </c>
       <c r="AS9" t="n">
-        <v>-400.703906675752</v>
+        <v>-420.2706922999091</v>
       </c>
       <c r="AT9" t="n">
         <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>-544.3144985972706</v>
+        <v>-570.4304778394879</v>
       </c>
       <c r="AV9" t="n">
-        <v>59</v>
+        <v>59.08750000000001</v>
       </c>
       <c r="AW9" t="n">
         <v>0</v>
@@ -2009,13 +2009,13 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0009236838620689655</v>
+        <v>0.0003142</v>
       </c>
       <c r="Q10" t="n">
         <v>0.04</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -2033,86 +2033,86 @@
         <v>36</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Y10" t="n">
-        <v>122.5</v>
+        <v>128.625</v>
       </c>
       <c r="Z10" t="n">
-        <v>36</v>
+        <v>37.8</v>
       </c>
       <c r="AA10" t="n">
         <v>0.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>61.25</v>
+        <v>64.3125</v>
       </c>
       <c r="AC10" t="n">
-        <v>97.25</v>
+        <v>102.1125</v>
       </c>
       <c r="AD10" t="n">
-        <v>219.375</v>
+        <v>230.34375</v>
       </c>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="n">
-        <v>158.5</v>
+        <v>166.425</v>
       </c>
       <c r="AG10" t="n">
-        <v>61.25</v>
+        <v>64.3125</v>
       </c>
       <c r="AH10" t="n">
-        <v>97.25</v>
+        <v>102.1125</v>
       </c>
       <c r="AI10" t="n">
-        <v>8.929607243292784</v>
+        <v>9.376087605457425</v>
       </c>
       <c r="AJ10" t="n">
-        <v>10.17088681980301</v>
+        <v>8.874636782216266</v>
       </c>
       <c r="AK10" t="n">
-        <v>-270.9083296729561</v>
+        <v>-284.4537461566041</v>
       </c>
       <c r="AL10" t="n">
-        <v>-219.9256619416616</v>
+        <v>-153.0642073200984</v>
       </c>
       <c r="AM10" t="n">
-        <v>-267.3510549566706</v>
+        <v>-187.973277055286</v>
       </c>
       <c r="AN10" t="n">
         <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>219.375</v>
+        <v>230.34375</v>
       </c>
       <c r="AP10" t="n">
         <v>105.1896123745755</v>
       </c>
       <c r="AQ10" t="n">
-        <v>182.1876752495927</v>
+        <v>257.635274086645</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>13.36293845179026</v>
       </c>
       <c r="AS10" t="n">
-        <v>0</v>
+        <v>-372.1098997217834</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>-434.9147204338893</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
       </c>
       <c r="AV10" t="n">
-        <v>158.5</v>
+        <v>166.425</v>
       </c>
       <c r="AW10" t="n">
-        <v>11.39534455607183</v>
+        <v>10.12785892336107</v>
       </c>
       <c r="AX10" t="n">
-        <v>-383.5242185879521</v>
+        <v>-254.0434848593199</v>
       </c>
       <c r="AY10" t="n">
-        <v>182.1876752495927</v>
+        <v>257.635274086645</v>
       </c>
     </row>
     <row r="11">
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V11" t="n">
         <v>41</v>
@@ -2195,74 +2195,74 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>41</v>
+        <v>34.7125</v>
       </c>
       <c r="Z11" t="n">
-        <v>12</v>
+        <v>10.1625</v>
       </c>
       <c r="AA11" t="n">
         <v>0.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>20.5</v>
+        <v>17.35625</v>
       </c>
       <c r="AC11" t="n">
-        <v>32.5</v>
+        <v>27.51875</v>
       </c>
       <c r="AD11" t="n">
-        <v>73.34999999999999</v>
+        <v>62.105625</v>
       </c>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="n">
-        <v>53</v>
+        <v>44.875</v>
       </c>
       <c r="AG11" t="n">
-        <v>20.5</v>
+        <v>17.35625</v>
       </c>
       <c r="AH11" t="n">
-        <v>32.5</v>
+        <v>27.51875</v>
       </c>
       <c r="AI11" t="n">
-        <v>4.405220250227974</v>
+        <v>3.729663608196068</v>
       </c>
       <c r="AJ11" t="n">
-        <v>3.882257703309887</v>
+        <v>3.365401470942317</v>
       </c>
       <c r="AK11" t="n">
-        <v>-301.9559174196879</v>
+        <v>-255.6498727666078</v>
       </c>
       <c r="AL11" t="n">
-        <v>-156.5939262403556</v>
+        <v>-138.7885178210593</v>
       </c>
       <c r="AM11" t="n">
         <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>-210.2320504621566</v>
+        <v>-186.2273367294606</v>
       </c>
       <c r="AO11" t="n">
-        <v>73.34999999999999</v>
+        <v>62.105625</v>
       </c>
       <c r="AP11" t="n">
         <v>32.17518292460515</v>
       </c>
       <c r="AQ11" t="n">
-        <v>221.1742373319743</v>
+        <v>208.848297344213</v>
       </c>
       <c r="AR11" t="n">
-        <v>6.184940352657271</v>
+        <v>5.407610726201151</v>
       </c>
       <c r="AS11" t="n">
-        <v>-356.8076569613502</v>
+        <v>-316.1757503099032</v>
       </c>
       <c r="AT11" t="n">
         <v>0</v>
       </c>
       <c r="AU11" t="n">
-        <v>-484.5938095746736</v>
+        <v>-428.96493850886</v>
       </c>
       <c r="AV11" t="n">
-        <v>53</v>
+        <v>44.875</v>
       </c>
       <c r="AW11" t="n">
         <v>0</v>
@@ -2327,13 +2327,13 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0009236838620689655</v>
+        <v>0.0003142</v>
       </c>
       <c r="Q12" t="n">
         <v>0.04</v>
       </c>
       <c r="R12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -2351,86 +2351,86 @@
         <v>37.5</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Y12" t="n">
-        <v>129</v>
+        <v>135.45</v>
       </c>
       <c r="Z12" t="n">
-        <v>37.5</v>
+        <v>39.375</v>
       </c>
       <c r="AA12" t="n">
         <v>0.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>64.5</v>
+        <v>67.72499999999999</v>
       </c>
       <c r="AC12" t="n">
-        <v>102</v>
+        <v>107.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>230.4</v>
+        <v>241.92</v>
       </c>
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="n">
-        <v>166.5</v>
+        <v>174.825</v>
       </c>
       <c r="AG12" t="n">
-        <v>64.5</v>
+        <v>67.72499999999999</v>
       </c>
       <c r="AH12" t="n">
-        <v>102</v>
+        <v>107.1</v>
       </c>
       <c r="AI12" t="n">
-        <v>9.403423137834842</v>
+        <v>9.873594294726592</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10.66766535341807</v>
+        <v>9.308102331990325</v>
       </c>
       <c r="AK12" t="n">
-        <v>-285.2830573698885</v>
+        <v>-299.5472102383829</v>
       </c>
       <c r="AL12" t="n">
-        <v>-230.6675323192749</v>
+        <v>-160.5403511223654</v>
       </c>
       <c r="AM12" t="n">
-        <v>-280.4093327051969</v>
+        <v>-197.1544911016881</v>
       </c>
       <c r="AN12" t="n">
         <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>230.4</v>
+        <v>241.92</v>
       </c>
       <c r="AP12" t="n">
         <v>105.1896123745755</v>
       </c>
       <c r="AQ12" t="n">
-        <v>182.1876752495927</v>
+        <v>257.635274086645</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>14.15191802712412</v>
       </c>
       <c r="AS12" t="n">
-        <v>0</v>
+        <v>-425.1321122762664</v>
       </c>
       <c r="AT12" t="n">
-        <v>0</v>
+        <v>-435.1534289999047</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
       </c>
       <c r="AV12" t="n">
-        <v>166.5</v>
+        <v>174.825</v>
       </c>
       <c r="AW12" t="n">
-        <v>12.02428757610131</v>
+        <v>10.56035198591798</v>
       </c>
       <c r="AX12" t="n">
-        <v>-420.2821313214105</v>
+        <v>-266.9710696998993</v>
       </c>
       <c r="AY12" t="n">
-        <v>182.1876752495927</v>
+        <v>257.635274086645</v>
       </c>
     </row>
     <row r="13">
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V13" t="n">
         <v>42</v>
@@ -2513,74 +2513,74 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>42</v>
+        <v>35.9</v>
       </c>
       <c r="Z13" t="n">
-        <v>18</v>
+        <v>16.05</v>
       </c>
       <c r="AA13" t="n">
         <v>0.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>21</v>
+        <v>17.95</v>
       </c>
       <c r="AC13" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AD13" t="n">
-        <v>83.7</v>
+        <v>72.54000000000001</v>
       </c>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="n">
-        <v>60</v>
+        <v>51.95</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>17.95</v>
       </c>
       <c r="AH13" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AI13" t="n">
-        <v>4.512664646575003</v>
+        <v>3.857253828858155</v>
       </c>
       <c r="AJ13" t="n">
-        <v>4.65870924397187</v>
+        <v>4.158024983403633</v>
       </c>
       <c r="AK13" t="n">
-        <v>-309.3206958933388</v>
+        <v>-264.3955472040682</v>
       </c>
       <c r="AL13" t="n">
-        <v>-187.912711488427</v>
+        <v>-171.4761610144362</v>
       </c>
       <c r="AM13" t="n">
         <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>-252.2784605545883</v>
+        <v>-230.0878291638123</v>
       </c>
       <c r="AO13" t="n">
-        <v>83.7</v>
+        <v>72.54000000000001</v>
       </c>
       <c r="AP13" t="n">
         <v>32.17518292460515</v>
       </c>
       <c r="AQ13" t="n">
-        <v>221.1742373319743</v>
+        <v>208.848297344213</v>
       </c>
       <c r="AR13" t="n">
-        <v>6.981542006823934</v>
+        <v>6.24733844812964</v>
       </c>
       <c r="AS13" t="n">
-        <v>-407.2907268735159</v>
+        <v>-369.4287431605657</v>
       </c>
       <c r="AT13" t="n">
         <v>0</v>
       </c>
       <c r="AU13" t="n">
-        <v>-553.278087798582</v>
+        <v>-501.3195485676352</v>
       </c>
       <c r="AV13" t="n">
-        <v>60</v>
+        <v>51.95</v>
       </c>
       <c r="AW13" t="n">
         <v>0</v>
@@ -2645,13 +2645,13 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0.001206</v>
+        <v>0.0002011</v>
       </c>
       <c r="Q14" t="n">
         <v>0.04</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -2669,86 +2669,86 @@
         <v>40.5</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Y14" t="n">
-        <v>115</v>
+        <v>120.75</v>
       </c>
       <c r="Z14" t="n">
-        <v>40.5</v>
+        <v>42.525</v>
       </c>
       <c r="AA14" t="n">
         <v>0.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>57.5</v>
+        <v>60.375</v>
       </c>
       <c r="AC14" t="n">
-        <v>98</v>
+        <v>102.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>216</v>
+        <v>226.8</v>
       </c>
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="n">
-        <v>155.5</v>
+        <v>163.275</v>
       </c>
       <c r="AG14" t="n">
-        <v>57.5</v>
+        <v>60.375</v>
       </c>
       <c r="AH14" t="n">
-        <v>98</v>
+        <v>102.9</v>
       </c>
       <c r="AI14" t="n">
-        <v>8.804772349794415</v>
+        <v>9.245010967284134</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9.985221685937271</v>
+        <v>10.48311989175095</v>
       </c>
       <c r="AK14" t="n">
-        <v>-191.2249986562128</v>
+        <v>-200.7862485890234</v>
       </c>
       <c r="AL14" t="n">
-        <v>-151.6397968912053</v>
+        <v>-159.1786793019923</v>
       </c>
       <c r="AM14" t="n">
-        <v>-227.9609055236196</v>
+        <v>-239.2974743305687</v>
       </c>
       <c r="AN14" t="n">
         <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>216</v>
+        <v>226.8</v>
       </c>
       <c r="AP14" t="n">
         <v>134.5896603149895</v>
       </c>
       <c r="AQ14" t="n">
-        <v>230.3059283523893</v>
+        <v>230.351840464656</v>
       </c>
       <c r="AR14" t="n">
-        <v>15.03058773274992</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="AS14" t="n">
-        <v>-419.6936192355785</v>
+        <v>-436.7424813019073</v>
       </c>
       <c r="AT14" t="n">
-        <v>-435.6236991407416</v>
+        <v>-438.5635660173375</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
       </c>
       <c r="AV14" t="n">
-        <v>155.5</v>
+        <v>163.275</v>
       </c>
       <c r="AW14" t="n">
-        <v>10.95854528052023</v>
+        <v>11.40570938639021</v>
       </c>
       <c r="AX14" t="n">
-        <v>-242.1591925809983</v>
+        <v>-254.293017731877</v>
       </c>
       <c r="AY14" t="n">
-        <v>230.3059283523893</v>
+        <v>230.351840464656</v>
       </c>
     </row>
     <row r="15">
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V15" t="n">
         <v>33.6</v>
@@ -2831,80 +2831,80 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>33.6</v>
+        <v>39.1625</v>
       </c>
       <c r="Z15" t="n">
-        <v>15</v>
+        <v>16.8</v>
       </c>
       <c r="AA15" t="n">
         <v>0.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>16.8</v>
+        <v>19.58125</v>
       </c>
       <c r="AC15" t="n">
-        <v>31.8</v>
+        <v>36.38125</v>
       </c>
       <c r="AD15" t="n">
-        <v>67.86000000000001</v>
+        <v>78.06937500000001</v>
       </c>
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="n">
-        <v>48.6</v>
+        <v>55.96250000000001</v>
       </c>
       <c r="AG15" t="n">
-        <v>16.8</v>
+        <v>19.58125</v>
       </c>
       <c r="AH15" t="n">
-        <v>31.8</v>
+        <v>36.38125</v>
       </c>
       <c r="AI15" t="n">
-        <v>2.17706417792705</v>
+        <v>2.537478448454408</v>
       </c>
       <c r="AJ15" t="n">
-        <v>3.376201865449619</v>
+        <v>3.744463631843165</v>
       </c>
       <c r="AK15" t="n">
-        <v>-84.01505828652971</v>
+        <v>-97.92380119482797</v>
       </c>
       <c r="AL15" t="n">
-        <v>-108.8834098684569</v>
+        <v>-117.1784008183767</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>-147.0802647547279</v>
+        <v>-158.4330317397036</v>
       </c>
       <c r="AO15" t="n">
-        <v>67.86000000000001</v>
+        <v>78.06937500000001</v>
       </c>
       <c r="AP15" t="n">
         <v>95.174094445131</v>
       </c>
       <c r="AQ15" t="n">
-        <v>214.0696029157618</v>
+        <v>238.6611441740586</v>
       </c>
       <c r="AR15" t="n">
-        <v>5.226027698380931</v>
+        <v>5.790816089275406</v>
       </c>
       <c r="AS15" t="n">
-        <v>-236.1905887409545</v>
+        <v>-255.6389147524789</v>
       </c>
       <c r="AT15" t="n">
         <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>-323.6692133758292</v>
+        <v>-350.8729071385965</v>
       </c>
       <c r="AV15" t="n">
-        <v>48.6</v>
+        <v>55.96250000000001</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.57520855646387</v>
+        <v>5.227978286173962</v>
       </c>
       <c r="AX15" t="n">
-        <v>-247.6952007586089</v>
+        <v>-285.3294785258438</v>
       </c>
       <c r="AY15" t="n">
         <v>95.174094445131</v>
@@ -2963,13 +2963,13 @@
         <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>0.0003078946206896552</v>
+        <v>0.0001539</v>
       </c>
       <c r="Q16" t="n">
         <v>0.04</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -2987,62 +2987,62 @@
         <v>37.5</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>-0.15</v>
       </c>
       <c r="Y16" t="n">
-        <v>112.5</v>
+        <v>95.625</v>
       </c>
       <c r="Z16" t="n">
-        <v>37.5</v>
+        <v>31.875</v>
       </c>
       <c r="AA16" t="n">
         <v>0.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>56.25</v>
+        <v>47.8125</v>
       </c>
       <c r="AC16" t="n">
-        <v>93.75</v>
+        <v>79.6875</v>
       </c>
       <c r="AD16" t="n">
-        <v>208.125</v>
+        <v>176.90625</v>
       </c>
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="n">
-        <v>150</v>
+        <v>127.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>56.25</v>
+        <v>47.8125</v>
       </c>
       <c r="AH16" t="n">
-        <v>93.75</v>
+        <v>79.6875</v>
       </c>
       <c r="AI16" t="n">
-        <v>8.911773997627417</v>
+        <v>7.575007897983299</v>
       </c>
       <c r="AJ16" t="n">
-        <v>12.57523897482209</v>
+        <v>9.458210899333929</v>
       </c>
       <c r="AK16" t="n">
-        <v>-300.1425979551188</v>
+        <v>-255.121208261851</v>
       </c>
       <c r="AL16" t="n">
-        <v>-360.8495349963129</v>
+        <v>-240.0984470495133</v>
       </c>
       <c r="AM16" t="n">
-        <v>-434.3084838416427</v>
+        <v>-290.131236823966</v>
       </c>
       <c r="AN16" t="n">
         <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>208.125</v>
+        <v>176.90625</v>
       </c>
       <c r="AP16" t="n">
         <v>88.50002969897365</v>
       </c>
       <c r="AQ16" t="n">
-        <v>114.9750776269257</v>
+        <v>140.9093493208296</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -3057,16 +3057,16 @@
         <v>0</v>
       </c>
       <c r="AV16" t="n">
-        <v>150</v>
+        <v>127.5</v>
       </c>
       <c r="AW16" t="n">
-        <v>0</v>
+        <v>10.6060973155757</v>
       </c>
       <c r="AX16" t="n">
-        <v>0</v>
+        <v>-423.0747595513508</v>
       </c>
       <c r="AY16" t="n">
-        <v>114.9750776269257</v>
+        <v>140.9093493208296</v>
       </c>
     </row>
     <row r="17">
@@ -3137,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V17" t="n">
         <v>44</v>
@@ -3149,80 +3149,80 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>44</v>
+        <v>52.4375</v>
       </c>
       <c r="Z17" t="n">
-        <v>16</v>
+        <v>18.8125</v>
       </c>
       <c r="AA17" t="n">
         <v>0.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>22</v>
+        <v>26.21875</v>
       </c>
       <c r="AC17" t="n">
-        <v>38</v>
+        <v>45.03125</v>
       </c>
       <c r="AD17" t="n">
-        <v>83.40000000000001</v>
+        <v>99.00937500000001</v>
       </c>
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="n">
-        <v>60</v>
+        <v>71.25</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>26.21875</v>
       </c>
       <c r="AH17" t="n">
-        <v>38</v>
+        <v>45.03125</v>
       </c>
       <c r="AI17" t="n">
-        <v>2.850917375856849</v>
+        <v>3.397613179465761</v>
       </c>
       <c r="AJ17" t="n">
-        <v>4.418889452694378</v>
+        <v>4.946534490940208</v>
       </c>
       <c r="AK17" t="n">
-        <v>-110.0197191847413</v>
+        <v>-131.1172505624971</v>
       </c>
       <c r="AL17" t="n">
-        <v>-154.3986099149525</v>
+        <v>-164.5470456482008</v>
       </c>
       <c r="AM17" t="n">
         <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>-208.0716667212731</v>
+        <v>-222.063755899978</v>
       </c>
       <c r="AO17" t="n">
-        <v>83.40000000000001</v>
+        <v>99.00937500000001</v>
       </c>
       <c r="AP17" t="n">
         <v>95.174094445131</v>
       </c>
       <c r="AQ17" t="n">
-        <v>151.7894856933263</v>
+        <v>189.3189104348685</v>
       </c>
       <c r="AR17" t="n">
-        <v>6.849959211132564</v>
+        <v>7.628486192011818</v>
       </c>
       <c r="AS17" t="n">
-        <v>-345.4770566855443</v>
+        <v>-368.5833179729163</v>
       </c>
       <c r="AT17" t="n">
         <v>0</v>
       </c>
       <c r="AU17" t="n">
-        <v>-471.8990833006507</v>
+        <v>-504.7604872107373</v>
       </c>
       <c r="AV17" t="n">
-        <v>60</v>
+        <v>71.25</v>
       </c>
       <c r="AW17" t="n">
-        <v>5.581144604391039</v>
+        <v>6.546764127382972</v>
       </c>
       <c r="AX17" t="n">
-        <v>-305.9809829439516</v>
+        <v>-363.5754049787142</v>
       </c>
       <c r="AY17" t="n">
         <v>95.174094445131</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
         <v>40</v>
@@ -3490,19 +3490,19 @@
         <v>7.967015698338476</v>
       </c>
       <c r="AJ19" t="n">
-        <v>2.568579008837751</v>
+        <v>2.642157726520022</v>
       </c>
       <c r="AK19" t="n">
         <v>-311.891325633184</v>
       </c>
       <c r="AL19" t="n">
-        <v>-88.15613161805773</v>
+        <v>-92.69500327078103</v>
       </c>
       <c r="AM19" t="n">
         <v>0</v>
       </c>
       <c r="AN19" t="n">
-        <v>-122.5105927187556</v>
+        <v>-128.7271375190678</v>
       </c>
       <c r="AO19" t="n">
         <v>76.5</v>
@@ -3511,19 +3511,19 @@
         <v>61.08963333353998</v>
       </c>
       <c r="AQ19" t="n">
-        <v>112.388528668554</v>
+        <v>101.3446874256053</v>
       </c>
       <c r="AR19" t="n">
-        <v>9.372980477847783</v>
+        <v>10.0958164457419</v>
       </c>
       <c r="AS19" t="n">
-        <v>-435.0933152133354</v>
+        <v>-435.5269605027191</v>
       </c>
       <c r="AT19" t="n">
         <v>0</v>
       </c>
       <c r="AU19" t="n">
-        <v>-732.5110682965544</v>
+        <v>-896.1281540572082</v>
       </c>
       <c r="AV19" t="n">
         <v>55</v>
@@ -3765,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
         <v>8.5</v>
@@ -3777,80 +3777,80 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.5</v>
+        <v>11.335</v>
       </c>
       <c r="Z21" t="n">
-        <v>12</v>
+        <v>13.155</v>
       </c>
       <c r="AA21" t="n">
         <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.5</v>
+        <v>11.335</v>
       </c>
       <c r="AC21" t="n">
-        <v>12</v>
+        <v>13.155</v>
       </c>
       <c r="AD21" t="n">
-        <v>29.475</v>
+        <v>35.03475</v>
       </c>
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="n">
-        <v>20.5</v>
+        <v>24.49</v>
       </c>
       <c r="AG21" t="n">
-        <v>8.5</v>
+        <v>11.335</v>
       </c>
       <c r="AH21" t="n">
-        <v>12</v>
+        <v>13.155</v>
       </c>
       <c r="AI21" t="n">
-        <v>1.692990835896928</v>
+        <v>2.257653073516665</v>
       </c>
       <c r="AJ21" t="n">
-        <v>2.054863207070203</v>
+        <v>2.317172326158059</v>
       </c>
       <c r="AK21" t="n">
-        <v>-66.27690669705159</v>
+        <v>-88.38220440130353</v>
       </c>
       <c r="AL21" t="n">
-        <v>-70.52490529444619</v>
+        <v>-81.29351786847494</v>
       </c>
       <c r="AM21" t="n">
         <v>0</v>
       </c>
       <c r="AN21" t="n">
-        <v>-98.00847417500451</v>
+        <v>-112.8936996042224</v>
       </c>
       <c r="AO21" t="n">
-        <v>29.475</v>
+        <v>35.03475</v>
       </c>
       <c r="AP21" t="n">
         <v>61.08963333353998</v>
       </c>
       <c r="AQ21" t="n">
-        <v>112.388528668554</v>
+        <v>101.3446874256053</v>
       </c>
       <c r="AR21" t="n">
-        <v>3.707712218290518</v>
+        <v>4.488325046066611</v>
       </c>
       <c r="AS21" t="n">
-        <v>-175.9743348760818</v>
+        <v>-220.135015560264</v>
       </c>
       <c r="AT21" t="n">
         <v>0</v>
       </c>
       <c r="AU21" t="n">
-        <v>-248.1469337844648</v>
+        <v>-310.1556335989046</v>
       </c>
       <c r="AV21" t="n">
-        <v>20.5</v>
+        <v>24.49</v>
       </c>
       <c r="AW21" t="n">
-        <v>3.016678938520806</v>
+        <v>3.581717981668957</v>
       </c>
       <c r="AX21" t="n">
-        <v>-162.7086999828226</v>
+        <v>-194.4402415995881</v>
       </c>
       <c r="AY21" t="n">
         <v>61.08963333353998</v>
@@ -3933,47 +3933,47 @@
         <v>33</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="Y22" t="n">
-        <v>81</v>
+        <v>75.33</v>
       </c>
       <c r="Z22" t="n">
-        <v>33</v>
+        <v>30.69</v>
       </c>
       <c r="AA22" t="n">
         <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>81</v>
+        <v>75.33</v>
       </c>
       <c r="AC22" t="n">
-        <v>33</v>
+        <v>30.69</v>
       </c>
       <c r="AD22" t="n">
-        <v>158.85</v>
+        <v>147.7305</v>
       </c>
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="n">
-        <v>114</v>
+        <v>106.02</v>
       </c>
       <c r="AG22" t="n">
-        <v>81</v>
+        <v>75.33</v>
       </c>
       <c r="AH22" t="n">
-        <v>33</v>
+        <v>30.69</v>
       </c>
       <c r="AI22" t="n">
-        <v>17.09808626126508</v>
+        <v>15.90122022297652</v>
       </c>
       <c r="AJ22" t="n">
-        <v>6.965886995330214</v>
+        <v>6.4782749056571</v>
       </c>
       <c r="AK22" t="n">
-        <v>-336.7649567641074</v>
+        <v>-313.19140979062</v>
       </c>
       <c r="AL22" t="n">
-        <v>-137.2005379409327</v>
+        <v>-127.5965002850674</v>
       </c>
       <c r="AM22" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="AO22" t="n">
-        <v>158.85</v>
+        <v>147.7305</v>
       </c>
       <c r="AP22" t="n">
         <v>106.272141018135</v>
@@ -4003,13 +4003,13 @@
         <v>0</v>
       </c>
       <c r="AV22" t="n">
-        <v>114</v>
+        <v>106.02</v>
       </c>
       <c r="AW22" t="n">
-        <v>0</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="AX22" t="n">
-        <v>0</v>
+        <v>-442.2830981102611</v>
       </c>
       <c r="AY22" t="n">
         <v>106.272141018135</v>
@@ -4083,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V23" t="n">
         <v>40</v>
@@ -4095,80 +4095,80 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>40</v>
+        <v>46.86</v>
       </c>
       <c r="Z23" t="n">
-        <v>19</v>
+        <v>21.59</v>
       </c>
       <c r="AA23" t="n">
         <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>40</v>
+        <v>46.86</v>
       </c>
       <c r="AC23" t="n">
-        <v>19</v>
+        <v>21.59</v>
       </c>
       <c r="AD23" t="n">
-        <v>82.5</v>
+        <v>95.646</v>
       </c>
       <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="n">
-        <v>59</v>
+        <v>68.45</v>
       </c>
       <c r="AG23" t="n">
-        <v>40</v>
+        <v>46.86</v>
       </c>
       <c r="AH23" t="n">
-        <v>19</v>
+        <v>21.59</v>
       </c>
       <c r="AI23" t="n">
-        <v>6.886890121749387</v>
+        <v>8.067991777629409</v>
       </c>
       <c r="AJ23" t="n">
-        <v>2.923805117295196</v>
+        <v>3.389044886806763</v>
       </c>
       <c r="AK23" t="n">
-        <v>-224.8280927442917</v>
+        <v>-263.3861106499377</v>
       </c>
       <c r="AL23" t="n">
-        <v>-86.49296578628731</v>
+        <v>-102.1789604338746</v>
       </c>
       <c r="AM23" t="n">
         <v>0</v>
       </c>
       <c r="AN23" t="n">
-        <v>-120.8263033716796</v>
+        <v>-142.6378719953804</v>
       </c>
       <c r="AO23" t="n">
-        <v>82.5</v>
+        <v>95.646</v>
       </c>
       <c r="AP23" t="n">
         <v>83.69813879443399</v>
       </c>
       <c r="AQ23" t="n">
-        <v>133.5222410145755</v>
+        <v>122.6025204056411</v>
       </c>
       <c r="AR23" t="n">
-        <v>8.798517585404776</v>
+        <v>10.98664185988835</v>
       </c>
       <c r="AS23" t="n">
-        <v>-384.1767928533428</v>
+        <v>-435.344272458406</v>
       </c>
       <c r="AT23" t="n">
         <v>0</v>
       </c>
       <c r="AU23" t="n">
-        <v>-547.1002642017326</v>
+        <v>-832.8975029864798</v>
       </c>
       <c r="AV23" t="n">
-        <v>59</v>
+        <v>68.45</v>
       </c>
       <c r="AW23" t="n">
-        <v>7.195971426056565</v>
+        <v>8.22677281567046</v>
       </c>
       <c r="AX23" t="n">
-        <v>-339.5567150381156</v>
+        <v>-394.2851404442495</v>
       </c>
       <c r="AY23" t="n">
         <v>83.69813879443399</v>
@@ -4251,56 +4251,56 @@
         <v>41</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="Y24" t="n">
-        <v>115</v>
+        <v>106.95</v>
       </c>
       <c r="Z24" t="n">
-        <v>41</v>
+        <v>38.13</v>
       </c>
       <c r="AA24" t="n">
         <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>115</v>
+        <v>106.95</v>
       </c>
       <c r="AC24" t="n">
-        <v>41</v>
+        <v>38.13</v>
       </c>
       <c r="AD24" t="n">
-        <v>216.75</v>
+        <v>201.5775</v>
       </c>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="n">
-        <v>156</v>
+        <v>145.08</v>
       </c>
       <c r="AG24" t="n">
-        <v>115</v>
+        <v>106.95</v>
       </c>
       <c r="AH24" t="n">
-        <v>41</v>
+        <v>38.13</v>
       </c>
       <c r="AI24" t="n">
-        <v>15.29309484130789</v>
+        <v>14.22257820241635</v>
       </c>
       <c r="AJ24" t="n">
-        <v>4.843429470200694</v>
+        <v>4.504389407286643</v>
       </c>
       <c r="AK24" t="n">
-        <v>-354.9125021275665</v>
+        <v>-330.0686269786368</v>
       </c>
       <c r="AL24" t="n">
-        <v>-100.7482973932941</v>
+        <v>-93.6959165757635</v>
       </c>
       <c r="AM24" t="n">
         <v>0</v>
       </c>
       <c r="AN24" t="n">
-        <v>-142.97340595859</v>
+        <v>-132.9652675414887</v>
       </c>
       <c r="AO24" t="n">
-        <v>216.75</v>
+        <v>201.5775</v>
       </c>
       <c r="AP24" t="n">
         <v>146.1731955380777</v>
@@ -4309,25 +4309,25 @@
         <v>245.8270678494522</v>
       </c>
       <c r="AR24" t="n">
-        <v>16.55752181657616</v>
+        <v>15.90147335813075</v>
       </c>
       <c r="AS24" t="n">
-        <v>-436.6553053837681</v>
+        <v>-436.0116030614662</v>
       </c>
       <c r="AT24" t="n">
         <v>0</v>
       </c>
       <c r="AU24" t="n">
-        <v>-1366.78385444302</v>
+        <v>-1115.754532008702</v>
       </c>
       <c r="AV24" t="n">
-        <v>156</v>
+        <v>145.08</v>
       </c>
       <c r="AW24" t="n">
-        <v>0</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="AX24" t="n">
-        <v>0</v>
+        <v>-444.2471665996386</v>
       </c>
       <c r="AY24" t="n">
         <v>146.1731955380777</v>
@@ -4401,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
         <v>36</v>
@@ -4413,80 +4413,80 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>36</v>
+        <v>40.025</v>
       </c>
       <c r="Z25" t="n">
-        <v>18</v>
+        <v>19.435</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>36</v>
+        <v>40.025</v>
       </c>
       <c r="AC25" t="n">
-        <v>18</v>
+        <v>19.435</v>
       </c>
       <c r="AD25" t="n">
-        <v>75.59999999999999</v>
+        <v>83.18625</v>
       </c>
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="n">
-        <v>54</v>
+        <v>59.45999999999999</v>
       </c>
       <c r="AG25" t="n">
-        <v>36</v>
+        <v>40.025</v>
       </c>
       <c r="AH25" t="n">
-        <v>18</v>
+        <v>19.435</v>
       </c>
       <c r="AI25" t="n">
-        <v>7.170314128504637</v>
+        <v>7.971995083149937</v>
       </c>
       <c r="AJ25" t="n">
-        <v>3.082294810605302</v>
+        <v>3.423355694327778</v>
       </c>
       <c r="AK25" t="n">
-        <v>-280.7021930698656</v>
+        <v>-312.0862577117047</v>
       </c>
       <c r="AL25" t="n">
-        <v>-105.7873579416693</v>
+        <v>-120.1018259045086</v>
       </c>
       <c r="AM25" t="n">
         <v>0</v>
       </c>
       <c r="AN25" t="n">
-        <v>-147.0127112625068</v>
+        <v>-166.7874611788721</v>
       </c>
       <c r="AO25" t="n">
-        <v>75.59999999999999</v>
+        <v>83.18625</v>
       </c>
       <c r="AP25" t="n">
         <v>61.08963333353998</v>
       </c>
       <c r="AQ25" t="n">
-        <v>112.388528668554</v>
+        <v>101.3446874256053</v>
       </c>
       <c r="AR25" t="n">
-        <v>9.195166908789069</v>
+        <v>11.44685361612724</v>
       </c>
       <c r="AS25" t="n">
-        <v>-435.020494982774</v>
+        <v>-436.205869011485</v>
       </c>
       <c r="AT25" t="n">
         <v>0</v>
       </c>
       <c r="AU25" t="n">
-        <v>-704.8041031511038</v>
+        <v>-1153.81016346499</v>
       </c>
       <c r="AV25" t="n">
-        <v>54</v>
+        <v>59.45999999999999</v>
       </c>
       <c r="AW25" t="n">
-        <v>7.516630138644521</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="AX25" t="n">
-        <v>-429.8359251608343</v>
+        <v>-453.856853504957</v>
       </c>
       <c r="AY25" t="n">
         <v>61.08963333353998</v>
@@ -4627,7 +4627,7 @@
         <v>245.8270678494522</v>
       </c>
       <c r="AR26" t="n">
-        <v>15.1649148747813</v>
+        <v>15.16491487478132</v>
       </c>
       <c r="AS26" t="n">
         <v>-435.5875966024719</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="AU26" t="n">
-        <v>-950.5903013840446</v>
+        <v>-950.5903013840459</v>
       </c>
       <c r="AV26" t="n">
         <v>137.5</v>
@@ -4719,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V27" t="n">
         <v>31</v>
@@ -4762,19 +4762,19 @@
         <v>5.337339844355779</v>
       </c>
       <c r="AJ27" t="n">
-        <v>2.308267197864629</v>
+        <v>2.354593483191361</v>
       </c>
       <c r="AK27" t="n">
-        <v>-174.2417718768261</v>
+        <v>-174.241771876826</v>
       </c>
       <c r="AL27" t="n">
-        <v>-68.28392035759528</v>
+        <v>-70.99047737416024</v>
       </c>
       <c r="AM27" t="n">
         <v>0</v>
       </c>
       <c r="AN27" t="n">
-        <v>-95.38918687237866</v>
+        <v>-99.09995738446989</v>
       </c>
       <c r="AO27" t="n">
         <v>64.34999999999999</v>
@@ -4783,19 +4783,19 @@
         <v>83.69813879443399</v>
       </c>
       <c r="AQ27" t="n">
-        <v>133.5222410145755</v>
+        <v>122.6025204056411</v>
       </c>
       <c r="AR27" t="n">
-        <v>7.042143516661371</v>
+        <v>7.174826080565391</v>
       </c>
       <c r="AS27" t="n">
-        <v>-299.1977973338558</v>
+        <v>-311.1445692170701</v>
       </c>
       <c r="AT27" t="n">
         <v>0</v>
       </c>
       <c r="AU27" t="n">
-        <v>-425.7297567649752</v>
+        <v>-442.3054704529233</v>
       </c>
       <c r="AV27" t="n">
         <v>46</v>
@@ -5231,10 +5231,10 @@
         <v>4.208680793056605</v>
       </c>
       <c r="AJ30" t="n">
-        <v>2.395710605278377</v>
+        <v>2.395710605278375</v>
       </c>
       <c r="AK30" t="n">
-        <v>-94.2659213861391</v>
+        <v>-94.26592138613908</v>
       </c>
       <c r="AL30" t="n">
         <v>-53.65906294287918</v>
@@ -5273,7 +5273,7 @@
         <v>4.923375521068373</v>
       </c>
       <c r="AX30" t="n">
-        <v>-152.2526314991227</v>
+        <v>-152.2526314991228</v>
       </c>
       <c r="AY30" t="n">
         <v>154.8698944980596</v>
@@ -5555,7 +5555,7 @@
         <v>-121.1780513031914</v>
       </c>
       <c r="AL32" t="n">
-        <v>-74.5711084942717</v>
+        <v>-74.57110849427167</v>
       </c>
       <c r="AM32" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>9.298944547003741</v>
       </c>
       <c r="AS32" t="n">
-        <v>-285.2599329853366</v>
+        <v>-285.2599329853367</v>
       </c>
       <c r="AT32" t="n">
         <v>0</v>
@@ -5588,10 +5588,10 @@
         <v>52.5</v>
       </c>
       <c r="AW32" t="n">
-        <v>6.840929451655263</v>
+        <v>6.840929451655257</v>
       </c>
       <c r="AX32" t="n">
-        <v>-202.0805483814925</v>
+        <v>-202.0805483814926</v>
       </c>
       <c r="AY32" t="n">
         <v>119.4956006323927</v>
@@ -5705,7 +5705,7 @@
         <v>15</v>
       </c>
       <c r="AI33" t="n">
-        <v>4.04121606093515</v>
+        <v>4.041216060935152</v>
       </c>
       <c r="AJ33" t="n">
         <v>2.164937175500974</v>
@@ -5735,7 +5735,7 @@
         <v>6.199846818045199</v>
       </c>
       <c r="AS33" t="n">
-        <v>-341.8538456885034</v>
+        <v>-341.8538456885033</v>
       </c>
       <c r="AT33" t="n">
         <v>0</v>
@@ -5747,7 +5747,7 @@
         <v>43</v>
       </c>
       <c r="AW33" t="n">
-        <v>4.512452234954718</v>
+        <v>4.512452234954723</v>
       </c>
       <c r="AX33" t="n">
         <v>-243.5263251652287</v>
@@ -6023,7 +6023,7 @@
         <v>14</v>
       </c>
       <c r="AI35" t="n">
-        <v>4.152144339602656</v>
+        <v>4.152144339602649</v>
       </c>
       <c r="AJ35" t="n">
         <v>2.422084198101548</v>
@@ -6065,7 +6065,7 @@
         <v>38</v>
       </c>
       <c r="AW35" t="n">
-        <v>4.727237582057683</v>
+        <v>4.727237582057688</v>
       </c>
       <c r="AX35" t="n">
         <v>-319.6518705837533</v>
@@ -6212,7 +6212,7 @@
         <v>7.704022724425101</v>
       </c>
       <c r="AS36" t="n">
-        <v>-256.6356415040949</v>
+        <v>-256.6356415040948</v>
       </c>
       <c r="AT36" t="n">
         <v>0</v>
@@ -6611,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V39" t="n">
         <v>25</v>
@@ -6654,19 +6654,19 @@
         <v>5.560709258096802</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1.83451657437362</v>
+        <v>1.893364552046067</v>
       </c>
       <c r="AK39" t="n">
         <v>-245.730106700497</v>
       </c>
       <c r="AL39" t="n">
-        <v>-69.62633335547908</v>
+        <v>-73.95435102905215</v>
       </c>
       <c r="AM39" t="n">
         <v>0</v>
       </c>
       <c r="AN39" t="n">
-        <v>-96.45814706669911</v>
+        <v>-102.3683303087612</v>
       </c>
       <c r="AO39" t="n">
         <v>48.75</v>
@@ -6675,25 +6675,25 @@
         <v>48.38127627314073</v>
       </c>
       <c r="AQ39" t="n">
-        <v>101.1081136342473</v>
+        <v>89.94632603779641</v>
       </c>
       <c r="AR39" t="n">
-        <v>6.338855871521806</v>
+        <v>6.522915269502115</v>
       </c>
       <c r="AS39" t="n">
-        <v>-344.6098340895234</v>
+        <v>-366.2162476258003</v>
       </c>
       <c r="AT39" t="n">
         <v>0</v>
       </c>
       <c r="AU39" t="n">
-        <v>-484.116831573502</v>
+        <v>-513.8544041831045</v>
       </c>
       <c r="AV39" t="n">
         <v>35</v>
       </c>
       <c r="AW39" t="n">
-        <v>5.53050626545958</v>
+        <v>5.530506265459573</v>
       </c>
       <c r="AX39" t="n">
         <v>-350.2363841760229</v>
@@ -6813,13 +6813,13 @@
         <v>7.122382880557337</v>
       </c>
       <c r="AJ40" t="n">
-        <v>2.978451022778522</v>
+        <v>2.978451022778524</v>
       </c>
       <c r="AK40" t="n">
         <v>-159.5269438842354</v>
       </c>
       <c r="AL40" t="n">
-        <v>-66.71126744249845</v>
+        <v>-66.71126744249844</v>
       </c>
       <c r="AM40" t="n">
         <v>0</v>
@@ -6929,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V41" t="n">
         <v>12.5</v>
@@ -6941,80 +6941,80 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>12.5</v>
+        <v>16.625</v>
       </c>
       <c r="Z41" t="n">
-        <v>12</v>
+        <v>13.65</v>
       </c>
       <c r="AA41" t="n">
         <v>0</v>
       </c>
       <c r="AB41" t="n">
-        <v>12.5</v>
+        <v>16.625</v>
       </c>
       <c r="AC41" t="n">
-        <v>12</v>
+        <v>13.65</v>
       </c>
       <c r="AD41" t="n">
-        <v>34.875</v>
+        <v>42.91875</v>
       </c>
       <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="n">
-        <v>24.5</v>
+        <v>30.275</v>
       </c>
       <c r="AG41" t="n">
-        <v>12.5</v>
+        <v>16.625</v>
       </c>
       <c r="AH41" t="n">
-        <v>12</v>
+        <v>13.65</v>
       </c>
       <c r="AI41" t="n">
-        <v>2.780354629048397</v>
+        <v>3.697871656634382</v>
       </c>
       <c r="AJ41" t="n">
-        <v>2.201419889248343</v>
+        <v>2.584442613542883</v>
       </c>
       <c r="AK41" t="n">
-        <v>-122.8650533502485</v>
+        <v>-163.4105209558305</v>
       </c>
       <c r="AL41" t="n">
-        <v>-83.55160002657487</v>
+        <v>-100.9476891546562</v>
       </c>
       <c r="AM41" t="n">
         <v>0</v>
       </c>
       <c r="AN41" t="n">
-        <v>-115.7497764800389</v>
+        <v>-139.7327708714591</v>
       </c>
       <c r="AO41" t="n">
-        <v>34.875</v>
+        <v>42.91875</v>
       </c>
       <c r="AP41" t="n">
         <v>48.38127627314073</v>
       </c>
       <c r="AQ41" t="n">
-        <v>101.1081136342473</v>
+        <v>89.94632603779641</v>
       </c>
       <c r="AR41" t="n">
-        <v>4.631296924206716</v>
+        <v>5.797378188613066</v>
       </c>
       <c r="AS41" t="n">
-        <v>-246.3183253819543</v>
+        <v>-322.2803427041204</v>
       </c>
       <c r="AT41" t="n">
         <v>0</v>
       </c>
       <c r="AU41" t="n">
-        <v>-345.849704194885</v>
+        <v>-452.1041203135073</v>
       </c>
       <c r="AV41" t="n">
-        <v>24.5</v>
+        <v>30.275</v>
       </c>
       <c r="AW41" t="n">
-        <v>3.944184904711329</v>
+        <v>4.824806549652999</v>
       </c>
       <c r="AX41" t="n">
-        <v>-244.9705319279694</v>
+        <v>-302.8446830790963</v>
       </c>
       <c r="AY41" t="n">
         <v>48.38127627314073</v>
@@ -7088,7 +7088,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V42" t="n">
         <v>82.5</v>
@@ -7097,62 +7097,62 @@
         <v>33</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="Y42" t="n">
-        <v>82.5</v>
+        <v>74.25</v>
       </c>
       <c r="Z42" t="n">
-        <v>33</v>
+        <v>29.7</v>
       </c>
       <c r="AA42" t="n">
         <v>0</v>
       </c>
       <c r="AB42" t="n">
-        <v>82.5</v>
+        <v>74.25</v>
       </c>
       <c r="AC42" t="n">
-        <v>33</v>
+        <v>29.7</v>
       </c>
       <c r="AD42" t="n">
-        <v>160.875</v>
+        <v>144.7875</v>
       </c>
       <c r="AE42" t="inlineStr"/>
       <c r="AF42" t="n">
-        <v>115.5</v>
+        <v>103.95</v>
       </c>
       <c r="AG42" t="n">
-        <v>82.5</v>
+        <v>74.25</v>
       </c>
       <c r="AH42" t="n">
-        <v>33</v>
+        <v>29.7</v>
       </c>
       <c r="AI42" t="n">
-        <v>21.02446739025967</v>
+        <v>18.92202065123372</v>
       </c>
       <c r="AJ42" t="n">
-        <v>6.950346260526263</v>
+        <v>6.473816413426433</v>
       </c>
       <c r="AK42" t="n">
-        <v>-387.8945626276004</v>
+        <v>-349.1051063648403</v>
       </c>
       <c r="AL42" t="n">
-        <v>-116.5022656971263</v>
+        <v>-110.3595966024033</v>
       </c>
       <c r="AM42" t="n">
         <v>0</v>
       </c>
       <c r="AN42" t="n">
-        <v>-275.429079669681</v>
+        <v>-260.2657777177026</v>
       </c>
       <c r="AO42" t="n">
-        <v>160.875</v>
+        <v>144.7875</v>
       </c>
       <c r="AP42" t="n">
         <v>93.12627346717684</v>
       </c>
       <c r="AQ42" t="n">
-        <v>143.3705714436411</v>
+        <v>132.8667853504343</v>
       </c>
       <c r="AR42" t="n">
         <v>0</v>
@@ -7167,7 +7167,7 @@
         <v>0</v>
       </c>
       <c r="AV42" t="n">
-        <v>115.5</v>
+        <v>103.95</v>
       </c>
       <c r="AW42" t="n">
         <v>0</v>
@@ -7247,7 +7247,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V43" t="n">
         <v>38</v>
@@ -7259,80 +7259,80 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>38</v>
+        <v>42.125</v>
       </c>
       <c r="Z43" t="n">
-        <v>18</v>
+        <v>19.65</v>
       </c>
       <c r="AA43" t="n">
         <v>0</v>
       </c>
       <c r="AB43" t="n">
-        <v>38</v>
+        <v>42.125</v>
       </c>
       <c r="AC43" t="n">
-        <v>18</v>
+        <v>19.65</v>
       </c>
       <c r="AD43" t="n">
-        <v>78.30000000000001</v>
+        <v>86.34375</v>
       </c>
       <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="n">
-        <v>56</v>
+        <v>61.775</v>
       </c>
       <c r="AG43" t="n">
-        <v>38</v>
+        <v>42.125</v>
       </c>
       <c r="AH43" t="n">
-        <v>18</v>
+        <v>19.65</v>
       </c>
       <c r="AI43" t="n">
-        <v>7.006198118476996</v>
+        <v>7.766739109863471</v>
       </c>
       <c r="AJ43" t="n">
-        <v>2.903181575915802</v>
+        <v>3.244180644994337</v>
       </c>
       <c r="AK43" t="n">
-        <v>-247.1461262243706</v>
+        <v>-273.974490213324</v>
       </c>
       <c r="AL43" t="n">
-        <v>-92.11384836871333</v>
+        <v>-105.0484452820387</v>
       </c>
       <c r="AM43" t="n">
         <v>0</v>
       </c>
       <c r="AN43" t="n">
-        <v>-128.3512348112027</v>
+        <v>-146.2707287491851</v>
       </c>
       <c r="AO43" t="n">
-        <v>78.30000000000001</v>
+        <v>86.34375</v>
       </c>
       <c r="AP43" t="n">
         <v>72.95608409883212</v>
       </c>
       <c r="AQ43" t="n">
-        <v>123.2273495821628</v>
+        <v>112.194067617046</v>
       </c>
       <c r="AR43" t="n">
-        <v>8.743947749927631</v>
+        <v>10.59258328407825</v>
       </c>
       <c r="AS43" t="n">
-        <v>-408.9456667648258</v>
+        <v>-435.4324974291412</v>
       </c>
       <c r="AT43" t="n">
         <v>0</v>
       </c>
       <c r="AU43" t="n">
-        <v>-580.1680705257172</v>
+        <v>-863.5694063772609</v>
       </c>
       <c r="AV43" t="n">
-        <v>56</v>
+        <v>61.775</v>
       </c>
       <c r="AW43" t="n">
-        <v>7.261005601184775</v>
+        <v>7.931550102190836</v>
       </c>
       <c r="AX43" t="n">
-        <v>-372.5095733351541</v>
+        <v>-411.1706235287271</v>
       </c>
       <c r="AY43" t="n">
         <v>72.95608409883212</v>
@@ -7406,7 +7406,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="V44" t="n">
         <v>108.5</v>
@@ -7449,19 +7449,19 @@
         <v>14.42870252419049</v>
       </c>
       <c r="AJ44" t="n">
-        <v>4.607164617995783</v>
+        <v>4.703754776071446</v>
       </c>
       <c r="AK44" t="n">
         <v>-334.8522302681823</v>
       </c>
       <c r="AL44" t="n">
-        <v>-95.83374630093829</v>
+        <v>-99.9242091910337</v>
       </c>
       <c r="AM44" t="n">
         <v>0</v>
       </c>
       <c r="AN44" t="n">
-        <v>-135.9990934728052</v>
+        <v>-141.6485194599823</v>
       </c>
       <c r="AO44" t="n">
         <v>204.975</v>
@@ -7470,19 +7470,19 @@
         <v>146.1731955380777</v>
       </c>
       <c r="AQ44" t="n">
-        <v>245.8270678494522</v>
+        <v>225.6305650447911</v>
       </c>
       <c r="AR44" t="n">
-        <v>16.09289209125226</v>
+        <v>16.5315059357431</v>
       </c>
       <c r="AS44" t="n">
-        <v>-436.1546351677276</v>
+        <v>-436.8376493493273</v>
       </c>
       <c r="AT44" t="n">
         <v>0</v>
       </c>
       <c r="AU44" t="n">
-        <v>-1171.445463503924</v>
+        <v>-1433.307800734303</v>
       </c>
       <c r="AV44" t="n">
         <v>147.5</v>
@@ -7565,7 +7565,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V45" t="n">
         <v>35</v>
@@ -7608,19 +7608,19 @@
         <v>7.727408164195372</v>
       </c>
       <c r="AJ45" t="n">
-        <v>3.288270886721524</v>
+        <v>3.392189976629029</v>
       </c>
       <c r="AK45" t="n">
-        <v>-338.99020179139</v>
+        <v>-338.9902017913901</v>
       </c>
       <c r="AL45" t="n">
-        <v>-124.0166197446317</v>
+        <v>-131.6415023465694</v>
       </c>
       <c r="AM45" t="n">
         <v>0</v>
       </c>
       <c r="AN45" t="n">
-        <v>-171.8408674239895</v>
+        <v>-182.253507809242</v>
       </c>
       <c r="AO45" t="n">
         <v>74.25</v>
@@ -7629,19 +7629,19 @@
         <v>49.10698046504135</v>
       </c>
       <c r="AQ45" t="n">
-        <v>101.7510011742146</v>
+        <v>90.60137539356097</v>
       </c>
       <c r="AR45" t="n">
-        <v>10.22290781488496</v>
+        <v>11.04025536587395</v>
       </c>
       <c r="AS45" t="n">
-        <v>-435.7813545086438</v>
+        <v>-436.3946440839191</v>
       </c>
       <c r="AT45" t="n">
         <v>0</v>
       </c>
       <c r="AU45" t="n">
-        <v>-990.7799031362823</v>
+        <v>-1221.513265361107</v>
       </c>
       <c r="AV45" t="n">
         <v>53</v>
@@ -7724,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="V46" t="n">
         <v>95</v>
@@ -7767,19 +7767,19 @@
         <v>12.63342617325433</v>
       </c>
       <c r="AJ46" t="n">
-        <v>4.134634913585957</v>
+        <v>4.221318388782066</v>
       </c>
       <c r="AK46" t="n">
         <v>-293.1885887140767</v>
       </c>
       <c r="AL46" t="n">
-        <v>-86.00464411622669</v>
+        <v>-89.67557235092768</v>
       </c>
       <c r="AM46" t="n">
         <v>0</v>
       </c>
       <c r="AN46" t="n">
-        <v>-122.0504685012354</v>
+        <v>-127.1204661820354</v>
       </c>
       <c r="AO46" t="n">
         <v>180.75</v>
@@ -7788,19 +7788,19 @@
         <v>146.1731955380777</v>
       </c>
       <c r="AQ46" t="n">
-        <v>245.8270678494522</v>
+        <v>225.6305650447911</v>
       </c>
       <c r="AR46" t="n">
-        <v>14.21365141289037</v>
+        <v>14.92348634489532</v>
       </c>
       <c r="AS46" t="n">
-        <v>-435.164473622072</v>
+        <v>-435.5910058535758</v>
       </c>
       <c r="AT46" t="n">
         <v>0</v>
       </c>
       <c r="AU46" t="n">
-        <v>-785.9911618138428</v>
+        <v>-949.57940820139</v>
       </c>
       <c r="AV46" t="n">
         <v>130</v>
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V47" t="n">
         <v>27</v>
@@ -7923,22 +7923,22 @@
         <v>13</v>
       </c>
       <c r="AI47" t="n">
-        <v>4.978088580296468</v>
+        <v>4.978088580296462</v>
       </c>
       <c r="AJ47" t="n">
-        <v>2.096742249272524</v>
+        <v>2.146277271497522</v>
       </c>
       <c r="AK47" t="n">
         <v>-175.6038237042838</v>
       </c>
       <c r="AL47" t="n">
-        <v>-66.52666826629292</v>
+        <v>-69.49769916877877</v>
       </c>
       <c r="AM47" t="n">
         <v>0</v>
       </c>
       <c r="AN47" t="n">
-        <v>-92.69811403031302</v>
+        <v>-96.76943886714531</v>
       </c>
       <c r="AO47" t="n">
         <v>55.95</v>
@@ -7947,25 +7947,25 @@
         <v>72.95608409883212</v>
       </c>
       <c r="AQ47" t="n">
-        <v>123.2273495821628</v>
+        <v>112.194067617046</v>
       </c>
       <c r="AR47" t="n">
-        <v>6.452257074892898</v>
+        <v>6.586055342005441</v>
       </c>
       <c r="AS47" t="n">
-        <v>-291.7599775241944</v>
+        <v>-304.9938578634466</v>
       </c>
       <c r="AT47" t="n">
         <v>0</v>
       </c>
       <c r="AU47" t="n">
-        <v>-413.4868725518656</v>
+        <v>-431.7820789147755</v>
       </c>
       <c r="AV47" t="n">
         <v>40</v>
       </c>
       <c r="AW47" t="n">
-        <v>5.321810635759063</v>
+        <v>5.32181063575906</v>
       </c>
       <c r="AX47" t="n">
         <v>-265.6565779920823</v>
@@ -8193,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V49" t="n">
         <v>36</v>
@@ -8205,74 +8205,74 @@
         <v>0</v>
       </c>
       <c r="Y49" t="n">
-        <v>36</v>
+        <v>30.75</v>
       </c>
       <c r="Z49" t="n">
-        <v>13</v>
+        <v>11.3</v>
       </c>
       <c r="AA49" t="n">
         <v>0</v>
       </c>
       <c r="AB49" t="n">
-        <v>36</v>
+        <v>30.75</v>
       </c>
       <c r="AC49" t="n">
-        <v>13</v>
+        <v>11.3</v>
       </c>
       <c r="AD49" t="n">
-        <v>68.09999999999999</v>
+        <v>58.46250000000001</v>
       </c>
       <c r="AE49" t="inlineStr"/>
       <c r="AF49" t="n">
-        <v>49</v>
+        <v>42.05</v>
       </c>
       <c r="AG49" t="n">
-        <v>36</v>
+        <v>30.75</v>
       </c>
       <c r="AH49" t="n">
-        <v>13</v>
+        <v>11.3</v>
       </c>
       <c r="AI49" t="n">
-        <v>7.735996536985726</v>
+        <v>6.607830375341975</v>
       </c>
       <c r="AJ49" t="n">
-        <v>1.552903081323955</v>
+        <v>1.381931832719443</v>
       </c>
       <c r="AK49" t="n">
-        <v>-530.2640501028666</v>
+        <v>-452.9338761295319</v>
       </c>
       <c r="AL49" t="n">
-        <v>-62.63757049614227</v>
+        <v>-56.99060645479794</v>
       </c>
       <c r="AM49" t="n">
         <v>0</v>
       </c>
       <c r="AN49" t="n">
-        <v>-84.0928201848627</v>
+        <v>-76.47036675150235</v>
       </c>
       <c r="AO49" t="n">
-        <v>68.09999999999999</v>
+        <v>58.46250000000001</v>
       </c>
       <c r="AP49" t="n">
         <v>32.17518292460515</v>
       </c>
       <c r="AQ49" t="n">
-        <v>221.1742373319743</v>
+        <v>208.848297344213</v>
       </c>
       <c r="AR49" t="n">
-        <v>5.773178955928186</v>
+        <v>5.109492859376259</v>
       </c>
       <c r="AS49" t="n">
-        <v>-331.2140566081807</v>
+        <v>-297.5921743792554</v>
       </c>
       <c r="AT49" t="n">
         <v>0</v>
       </c>
       <c r="AU49" t="n">
-        <v>-449.7854817163166</v>
+        <v>-403.7233009925357</v>
       </c>
       <c r="AV49" t="n">
-        <v>49</v>
+        <v>42.05</v>
       </c>
       <c r="AW49" t="n">
         <v>0</v>
@@ -8352,7 +8352,7 @@
         <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V50" t="n">
         <v>105</v>
@@ -8361,83 +8361,83 @@
         <v>34</v>
       </c>
       <c r="X50" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Y50" t="n">
-        <v>105</v>
+        <v>115.5</v>
       </c>
       <c r="Z50" t="n">
-        <v>34</v>
+        <v>37.4</v>
       </c>
       <c r="AA50" t="n">
         <v>0</v>
       </c>
       <c r="AB50" t="n">
-        <v>105</v>
+        <v>115.5</v>
       </c>
       <c r="AC50" t="n">
-        <v>34</v>
+        <v>37.4</v>
       </c>
       <c r="AD50" t="n">
-        <v>192.75</v>
+        <v>212.025</v>
       </c>
       <c r="AE50" t="inlineStr"/>
       <c r="AF50" t="n">
-        <v>139</v>
+        <v>152.9</v>
       </c>
       <c r="AG50" t="n">
-        <v>105</v>
+        <v>115.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>34</v>
+        <v>37.4</v>
       </c>
       <c r="AI50" t="n">
-        <v>12.67500529300647</v>
+        <v>13.9425058223071</v>
       </c>
       <c r="AJ50" t="n">
-        <v>3.762045565994279</v>
+        <v>4.20533914090289</v>
       </c>
       <c r="AK50" t="n">
-        <v>-299.018318727644</v>
+        <v>-328.9201506004084</v>
       </c>
       <c r="AL50" t="n">
-        <v>-83.62744406209285</v>
+        <v>-94.57727610281388</v>
       </c>
       <c r="AM50" t="n">
         <v>0</v>
       </c>
       <c r="AN50" t="n">
-        <v>-137.9899061489873</v>
+        <v>-155.923748908474</v>
       </c>
       <c r="AO50" t="n">
-        <v>192.75</v>
+        <v>212.025</v>
       </c>
       <c r="AP50" t="n">
         <v>158.729491119076</v>
       </c>
       <c r="AQ50" t="n">
-        <v>214.0908998344469</v>
+        <v>202.005106791322</v>
       </c>
       <c r="AR50" t="n">
-        <v>15.09619435257557</v>
+        <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>-435.9856865778876</v>
+        <v>0</v>
       </c>
       <c r="AT50" t="n">
         <v>0</v>
       </c>
       <c r="AU50" t="n">
-        <v>-1288.296770638319</v>
+        <v>0</v>
       </c>
       <c r="AV50" t="n">
-        <v>139</v>
+        <v>152.9</v>
       </c>
       <c r="AW50" t="n">
-        <v>11.3332737886501</v>
+        <v>15.69914789503918</v>
       </c>
       <c r="AX50" t="n">
-        <v>-410.2323945946432</v>
+        <v>-437.3911290891338</v>
       </c>
       <c r="AY50" t="n">
         <v>158.729491119076</v>
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V51" t="n">
         <v>32</v>
@@ -8523,74 +8523,74 @@
         <v>0</v>
       </c>
       <c r="Y51" t="n">
-        <v>32</v>
+        <v>21.425</v>
       </c>
       <c r="Z51" t="n">
-        <v>15</v>
+        <v>11.4</v>
       </c>
       <c r="AA51" t="n">
         <v>0</v>
       </c>
       <c r="AB51" t="n">
-        <v>32</v>
+        <v>21.425</v>
       </c>
       <c r="AC51" t="n">
-        <v>15</v>
+        <v>11.4</v>
       </c>
       <c r="AD51" t="n">
-        <v>65.7</v>
+        <v>46.02375</v>
       </c>
       <c r="AE51" t="inlineStr"/>
       <c r="AF51" t="n">
-        <v>47</v>
+        <v>32.825</v>
       </c>
       <c r="AG51" t="n">
-        <v>32</v>
+        <v>21.425</v>
       </c>
       <c r="AH51" t="n">
-        <v>15</v>
+        <v>11.4</v>
       </c>
       <c r="AI51" t="n">
-        <v>6.87644136620952</v>
+        <v>4.603992383469969</v>
       </c>
       <c r="AJ51" t="n">
-        <v>1.791811247681486</v>
+        <v>1.394161317964748</v>
       </c>
       <c r="AK51" t="n">
-        <v>-471.3458223136592</v>
+        <v>-315.5807575959421</v>
       </c>
       <c r="AL51" t="n">
-        <v>-72.27411980324106</v>
+        <v>-57.49494810484034</v>
       </c>
       <c r="AM51" t="n">
         <v>0</v>
       </c>
       <c r="AN51" t="n">
-        <v>-97.03017713638</v>
+        <v>-77.14709566080761</v>
       </c>
       <c r="AO51" t="n">
-        <v>65.7</v>
+        <v>46.02375</v>
       </c>
       <c r="AP51" t="n">
         <v>32.17518292460515</v>
       </c>
       <c r="AQ51" t="n">
-        <v>221.1742373319743</v>
+        <v>208.848297344213</v>
       </c>
       <c r="AR51" t="n">
-        <v>5.583254342316526</v>
+        <v>4.072909779921976</v>
       </c>
       <c r="AS51" t="n">
-        <v>-319.5171497372969</v>
+        <v>-234.1781977049598</v>
       </c>
       <c r="AT51" t="n">
         <v>0</v>
       </c>
       <c r="AU51" t="n">
-        <v>-433.8799970212563</v>
+        <v>-317.6185817770008</v>
       </c>
       <c r="AV51" t="n">
-        <v>47</v>
+        <v>32.825</v>
       </c>
       <c r="AW51" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>0</v>
       </c>
       <c r="U52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V52" t="n">
         <v>106.5</v>
@@ -8679,83 +8679,83 @@
         <v>38</v>
       </c>
       <c r="X52" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Y52" t="n">
-        <v>106.5</v>
+        <v>117.15</v>
       </c>
       <c r="Z52" t="n">
-        <v>38</v>
+        <v>41.8</v>
       </c>
       <c r="AA52" t="n">
         <v>0</v>
       </c>
       <c r="AB52" t="n">
-        <v>106.5</v>
+        <v>117.15</v>
       </c>
       <c r="AC52" t="n">
-        <v>38</v>
+        <v>41.8</v>
       </c>
       <c r="AD52" t="n">
-        <v>200.775</v>
+        <v>220.8525</v>
       </c>
       <c r="AE52" t="inlineStr"/>
       <c r="AF52" t="n">
-        <v>144.5</v>
+        <v>158.95</v>
       </c>
       <c r="AG52" t="n">
-        <v>106.5</v>
+        <v>117.15</v>
       </c>
       <c r="AH52" t="n">
-        <v>38</v>
+        <v>41.8</v>
       </c>
       <c r="AI52" t="n">
-        <v>12.16843072383028</v>
+        <v>13.38527379621331</v>
       </c>
       <c r="AJ52" t="n">
-        <v>4.02828311488251</v>
+        <v>4.493376575277487</v>
       </c>
       <c r="AK52" t="n">
-        <v>-266.6532139334306</v>
+        <v>-293.3185353267737</v>
       </c>
       <c r="AL52" t="n">
-        <v>-83.49653390007643</v>
+        <v>-94.1594706465839</v>
       </c>
       <c r="AM52" t="n">
         <v>0</v>
       </c>
       <c r="AN52" t="n">
-        <v>-138.5135746626847</v>
+        <v>-156.0683602439076</v>
       </c>
       <c r="AO52" t="n">
-        <v>200.775</v>
+        <v>220.8525</v>
       </c>
       <c r="AP52" t="n">
         <v>178.9239347416511</v>
       </c>
       <c r="AQ52" t="n">
-        <v>233.9639495475097</v>
+        <v>221.9264123929894</v>
       </c>
       <c r="AR52" t="n">
-        <v>14.42297085382179</v>
+        <v>16.57552415856807</v>
       </c>
       <c r="AS52" t="n">
-        <v>-435.3003440273782</v>
+        <v>-437.1879743211524</v>
       </c>
       <c r="AT52" t="n">
         <v>0</v>
       </c>
       <c r="AU52" t="n">
-        <v>-990.1009677312362</v>
+        <v>-1833.296353620285</v>
       </c>
       <c r="AV52" t="n">
-        <v>144.5</v>
+        <v>158.95</v>
       </c>
       <c r="AW52" t="n">
-        <v>11.2462283714495</v>
+        <v>12.14340948905132</v>
       </c>
       <c r="AX52" t="n">
-        <v>-375.5162935300705</v>
+        <v>-413.700777102579</v>
       </c>
       <c r="AY52" t="n">
         <v>178.9239347416511</v>
@@ -8829,7 +8829,7 @@
         <v>0</v>
       </c>
       <c r="U53" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V53" t="n">
         <v>38</v>
@@ -8841,74 +8841,74 @@
         <v>0</v>
       </c>
       <c r="Y53" t="n">
-        <v>38</v>
+        <v>32.675</v>
       </c>
       <c r="Z53" t="n">
-        <v>17</v>
+        <v>15.1</v>
       </c>
       <c r="AA53" t="n">
         <v>0</v>
       </c>
       <c r="AB53" t="n">
-        <v>38</v>
+        <v>32.675</v>
       </c>
       <c r="AC53" t="n">
-        <v>17</v>
+        <v>15.1</v>
       </c>
       <c r="AD53" t="n">
-        <v>76.80000000000001</v>
+        <v>66.76124999999999</v>
       </c>
       <c r="AE53" t="inlineStr"/>
       <c r="AF53" t="n">
-        <v>55</v>
+        <v>47.775</v>
       </c>
       <c r="AG53" t="n">
-        <v>38</v>
+        <v>32.675</v>
       </c>
       <c r="AH53" t="n">
-        <v>17</v>
+        <v>15.1</v>
       </c>
       <c r="AI53" t="n">
-        <v>8.165774122373801</v>
+        <v>7.021491301278015</v>
       </c>
       <c r="AJ53" t="n">
-        <v>2.030719414039019</v>
+        <v>1.846652272041027</v>
       </c>
       <c r="AK53" t="n">
-        <v>-559.7231639974704</v>
+        <v>-481.288273253088</v>
       </c>
       <c r="AL53" t="n">
-        <v>-81.91066911033991</v>
+        <v>-76.15558915641144</v>
       </c>
       <c r="AM53" t="n">
         <v>0</v>
       </c>
       <c r="AN53" t="n">
-        <v>-109.9675340878974</v>
+        <v>-102.186065305105</v>
       </c>
       <c r="AO53" t="n">
-        <v>76.80000000000001</v>
+        <v>66.76124999999999</v>
       </c>
       <c r="AP53" t="n">
         <v>32.17518292460515</v>
       </c>
       <c r="AQ53" t="n">
-        <v>221.1742373319743</v>
+        <v>208.848297344213</v>
       </c>
       <c r="AR53" t="n">
-        <v>6.452729757312802</v>
+        <v>5.78489021257444</v>
       </c>
       <c r="AS53" t="n">
-        <v>-373.6313118469443</v>
+        <v>-339.9312116412454</v>
       </c>
       <c r="AT53" t="n">
         <v>0</v>
       </c>
       <c r="AU53" t="n">
-        <v>-507.4792955339738</v>
+        <v>-461.2372351781913</v>
       </c>
       <c r="AV53" t="n">
-        <v>55</v>
+        <v>47.775</v>
       </c>
       <c r="AW53" t="n">
         <v>0</v>
@@ -8988,7 +8988,7 @@
         <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V54" t="n">
         <v>118.5</v>
@@ -9028,22 +9028,22 @@
         <v>42.5</v>
       </c>
       <c r="AI54" t="n">
-        <v>16.42873018445901</v>
+        <v>16.428730184459</v>
       </c>
       <c r="AJ54" t="n">
-        <v>4.82507536050297</v>
+        <v>4.674602128618258</v>
       </c>
       <c r="AK54" t="n">
-        <v>-369.2932335989296</v>
+        <v>-369.2932335989298</v>
       </c>
       <c r="AL54" t="n">
-        <v>-95.41118435766691</v>
+        <v>-90.30412887334782</v>
       </c>
       <c r="AM54" t="n">
         <v>0</v>
       </c>
       <c r="AN54" t="n">
-        <v>-176.3920438551602</v>
+        <v>-167.3384834075183</v>
       </c>
       <c r="AO54" t="n">
         <v>223.725</v>
@@ -9052,19 +9052,19 @@
         <v>144.2183705744448</v>
       </c>
       <c r="AQ54" t="n">
-        <v>259.9862577811403</v>
+        <v>283.4904664577915</v>
       </c>
       <c r="AR54" t="n">
-        <v>15.94265866493744</v>
+        <v>15.40575786614375</v>
       </c>
       <c r="AS54" t="n">
-        <v>-435.7266847489232</v>
+        <v>-435.3141016695353</v>
       </c>
       <c r="AT54" t="n">
         <v>0</v>
       </c>
       <c r="AU54" t="n">
-        <v>-1336.763144406537</v>
+        <v>-1132.559792915423</v>
       </c>
       <c r="AV54" t="n">
         <v>161</v>
@@ -9147,7 +9147,7 @@
         <v>0</v>
       </c>
       <c r="U55" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V55" t="n">
         <v>41</v>
@@ -9187,22 +9187,22 @@
         <v>18</v>
       </c>
       <c r="AI55" t="n">
-        <v>8.810440500455963</v>
+        <v>8.810440500455949</v>
       </c>
       <c r="AJ55" t="n">
-        <v>2.150173497217785</v>
+        <v>2.201307344154863</v>
       </c>
       <c r="AK55" t="n">
         <v>-603.9118348393758</v>
       </c>
       <c r="AL55" t="n">
-        <v>-86.72894376388932</v>
+        <v>-90.78149700764273</v>
       </c>
       <c r="AM55" t="n">
         <v>0</v>
       </c>
       <c r="AN55" t="n">
-        <v>-116.4362125636561</v>
+        <v>-121.8112036749595</v>
       </c>
       <c r="AO55" t="n">
         <v>82.34999999999999</v>
@@ -9211,19 +9211,19 @@
         <v>32.17518292460515</v>
       </c>
       <c r="AQ55" t="n">
-        <v>221.1742373319743</v>
+        <v>208.848297344213</v>
       </c>
       <c r="AR55" t="n">
-        <v>6.878795651953535</v>
+        <v>7.017237901629787</v>
       </c>
       <c r="AS55" t="n">
-        <v>-400.703906675752</v>
+        <v>-419.5330210306044</v>
       </c>
       <c r="AT55" t="n">
         <v>0</v>
       </c>
       <c r="AU55" t="n">
-        <v>-544.3144985972706</v>
+        <v>-569.42750691348</v>
       </c>
       <c r="AV55" t="n">
         <v>59</v>
@@ -9306,7 +9306,7 @@
         <v>0</v>
       </c>
       <c r="U56" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V56" t="n">
         <v>118.5</v>
@@ -9349,19 +9349,19 @@
         <v>14.30464883067873</v>
       </c>
       <c r="AJ56" t="n">
-        <v>4.374919936008514</v>
+        <v>4.264285893187068</v>
       </c>
       <c r="AK56" t="n">
         <v>-337.463531135484</v>
       </c>
       <c r="AL56" t="n">
-        <v>-91.89996180873605</v>
+        <v>-87.63808900966242</v>
       </c>
       <c r="AM56" t="n">
         <v>0</v>
       </c>
       <c r="AN56" t="n">
-        <v>-152.2943514707882</v>
+        <v>-145.4824384240448</v>
       </c>
       <c r="AO56" t="n">
         <v>223.725</v>
@@ -9370,19 +9370,19 @@
         <v>158.729491119076</v>
       </c>
       <c r="AQ56" t="n">
-        <v>273.886487091536</v>
+        <v>297.3904549757927</v>
       </c>
       <c r="AR56" t="n">
-        <v>15.21020600202636</v>
+        <v>14.61164453204977</v>
       </c>
       <c r="AS56" t="n">
-        <v>-435.6301393889164</v>
+        <v>-435.2441101648739</v>
       </c>
       <c r="AT56" t="n">
         <v>0</v>
       </c>
       <c r="AU56" t="n">
-        <v>-1140.860081773624</v>
+        <v>-969.1725835463345</v>
       </c>
       <c r="AV56" t="n">
         <v>161</v>
@@ -9465,7 +9465,7 @@
         <v>0</v>
       </c>
       <c r="U57" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V57" t="n">
         <v>41</v>
@@ -9477,74 +9477,74 @@
         <v>0</v>
       </c>
       <c r="Y57" t="n">
-        <v>41</v>
+        <v>35.075</v>
       </c>
       <c r="Z57" t="n">
-        <v>18</v>
+        <v>15.875</v>
       </c>
       <c r="AA57" t="n">
         <v>0</v>
       </c>
       <c r="AB57" t="n">
-        <v>41</v>
+        <v>35.075</v>
       </c>
       <c r="AC57" t="n">
-        <v>18</v>
+        <v>15.875</v>
       </c>
       <c r="AD57" t="n">
-        <v>82.34999999999999</v>
+        <v>71.16375000000001</v>
       </c>
       <c r="AE57" t="inlineStr"/>
       <c r="AF57" t="n">
-        <v>59</v>
+        <v>50.95</v>
       </c>
       <c r="AG57" t="n">
-        <v>41</v>
+        <v>35.075</v>
       </c>
       <c r="AH57" t="n">
-        <v>18</v>
+        <v>15.875</v>
       </c>
       <c r="AI57" t="n">
-        <v>8.810440500455963</v>
+        <v>7.53722440374373</v>
       </c>
       <c r="AJ57" t="n">
-        <v>2.150173497217785</v>
+        <v>1.941430782692139</v>
       </c>
       <c r="AK57" t="n">
-        <v>-603.9118348393758</v>
+        <v>-516.6392099266126</v>
       </c>
       <c r="AL57" t="n">
-        <v>-86.72894376388932</v>
+        <v>-80.06423694424046</v>
       </c>
       <c r="AM57" t="n">
         <v>0</v>
       </c>
       <c r="AN57" t="n">
-        <v>-116.4362125636561</v>
+        <v>-107.4307143522212</v>
       </c>
       <c r="AO57" t="n">
-        <v>82.34999999999999</v>
+        <v>71.16375000000001</v>
       </c>
       <c r="AP57" t="n">
         <v>32.17518292460515</v>
       </c>
       <c r="AQ57" t="n">
-        <v>221.1742373319743</v>
+        <v>208.848297344213</v>
       </c>
       <c r="AR57" t="n">
-        <v>6.878795651953535</v>
+        <v>6.137796240526182</v>
       </c>
       <c r="AS57" t="n">
-        <v>-400.703906675752</v>
+        <v>-362.4025521651098</v>
       </c>
       <c r="AT57" t="n">
         <v>0</v>
       </c>
       <c r="AU57" t="n">
-        <v>-544.3144985972706</v>
+        <v>-491.7711571161053</v>
       </c>
       <c r="AV57" t="n">
-        <v>59</v>
+        <v>50.95</v>
       </c>
       <c r="AW57" t="n">
         <v>0</v>
@@ -9624,7 +9624,7 @@
         <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V58" t="n">
         <v>118.5</v>
@@ -9633,83 +9633,83 @@
         <v>42.5</v>
       </c>
       <c r="X58" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Y58" t="n">
-        <v>118.5</v>
+        <v>130.35</v>
       </c>
       <c r="Z58" t="n">
-        <v>42.5</v>
+        <v>46.75</v>
       </c>
       <c r="AA58" t="n">
         <v>0</v>
       </c>
       <c r="AB58" t="n">
-        <v>118.5</v>
+        <v>130.35</v>
       </c>
       <c r="AC58" t="n">
-        <v>42.5</v>
+        <v>46.75</v>
       </c>
       <c r="AD58" t="n">
-        <v>223.725</v>
+        <v>246.0975</v>
       </c>
       <c r="AE58" t="inlineStr"/>
       <c r="AF58" t="n">
-        <v>161</v>
+        <v>177.1</v>
       </c>
       <c r="AG58" t="n">
-        <v>118.5</v>
+        <v>130.35</v>
       </c>
       <c r="AH58" t="n">
-        <v>42.5</v>
+        <v>46.75</v>
       </c>
       <c r="AI58" t="n">
-        <v>13.53952150961398</v>
+        <v>14.89347366057538</v>
       </c>
       <c r="AJ58" t="n">
-        <v>4.505316536857312</v>
+        <v>5.025486959191926</v>
       </c>
       <c r="AK58" t="n">
-        <v>-296.69864648931</v>
+        <v>-326.3685111382411</v>
       </c>
       <c r="AL58" t="n">
-        <v>-93.38428201113994</v>
+        <v>-105.3099342757847</v>
       </c>
       <c r="AM58" t="n">
         <v>0</v>
       </c>
       <c r="AN58" t="n">
-        <v>-154.9164987252325</v>
+        <v>-174.5501397464757</v>
       </c>
       <c r="AO58" t="n">
-        <v>223.725</v>
+        <v>246.0975</v>
       </c>
       <c r="AP58" t="n">
         <v>178.9239347416511</v>
       </c>
       <c r="AQ58" t="n">
-        <v>233.9639495475097</v>
+        <v>221.9264123929894</v>
       </c>
       <c r="AR58" t="n">
-        <v>16.34016654266242</v>
+        <v>0</v>
       </c>
       <c r="AS58" t="n">
-        <v>-436.6273044817244</v>
+        <v>0</v>
       </c>
       <c r="AT58" t="n">
         <v>0</v>
       </c>
       <c r="AU58" t="n">
-        <v>-1586.441308526227</v>
+        <v>0</v>
       </c>
       <c r="AV58" t="n">
-        <v>161</v>
+        <v>177.1</v>
       </c>
       <c r="AW58" t="n">
-        <v>12.26641112513158</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="AX58" t="n">
-        <v>-419.1302823761034</v>
+        <v>-441.759657267909</v>
       </c>
       <c r="AY58" t="n">
         <v>178.9239347416511</v>
@@ -9783,7 +9783,7 @@
         <v>0</v>
       </c>
       <c r="U59" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V59" t="n">
         <v>41</v>
@@ -9795,74 +9795,74 @@
         <v>0</v>
       </c>
       <c r="Y59" t="n">
-        <v>41</v>
+        <v>35.075</v>
       </c>
       <c r="Z59" t="n">
-        <v>18</v>
+        <v>15.875</v>
       </c>
       <c r="AA59" t="n">
         <v>0</v>
       </c>
       <c r="AB59" t="n">
-        <v>41</v>
+        <v>35.075</v>
       </c>
       <c r="AC59" t="n">
-        <v>18</v>
+        <v>15.875</v>
       </c>
       <c r="AD59" t="n">
-        <v>82.34999999999999</v>
+        <v>71.16375000000001</v>
       </c>
       <c r="AE59" t="inlineStr"/>
       <c r="AF59" t="n">
-        <v>59</v>
+        <v>50.95</v>
       </c>
       <c r="AG59" t="n">
-        <v>41</v>
+        <v>35.075</v>
       </c>
       <c r="AH59" t="n">
-        <v>18</v>
+        <v>15.875</v>
       </c>
       <c r="AI59" t="n">
-        <v>8.810440500455963</v>
+        <v>7.53722440374373</v>
       </c>
       <c r="AJ59" t="n">
-        <v>2.150173497217785</v>
+        <v>1.941430782692139</v>
       </c>
       <c r="AK59" t="n">
-        <v>-603.9118348393758</v>
+        <v>-516.6392099266126</v>
       </c>
       <c r="AL59" t="n">
-        <v>-86.72894376388932</v>
+        <v>-80.06423694424046</v>
       </c>
       <c r="AM59" t="n">
         <v>0</v>
       </c>
       <c r="AN59" t="n">
-        <v>-116.4362125636561</v>
+        <v>-107.4307143522212</v>
       </c>
       <c r="AO59" t="n">
-        <v>82.34999999999999</v>
+        <v>71.16375000000001</v>
       </c>
       <c r="AP59" t="n">
         <v>32.17518292460515</v>
       </c>
       <c r="AQ59" t="n">
-        <v>221.1742373319743</v>
+        <v>208.848297344213</v>
       </c>
       <c r="AR59" t="n">
-        <v>6.878795651953535</v>
+        <v>6.137796240526182</v>
       </c>
       <c r="AS59" t="n">
-        <v>-400.703906675752</v>
+        <v>-362.4025521651098</v>
       </c>
       <c r="AT59" t="n">
         <v>0</v>
       </c>
       <c r="AU59" t="n">
-        <v>-544.3144985972706</v>
+        <v>-491.7711571161053</v>
       </c>
       <c r="AV59" t="n">
-        <v>59</v>
+        <v>50.95</v>
       </c>
       <c r="AW59" t="n">
         <v>0</v>
@@ -9982,7 +9982,7 @@
         <v>42.5</v>
       </c>
       <c r="AI60" t="n">
-        <v>17.2760564625338</v>
+        <v>17.27605646253378</v>
       </c>
       <c r="AJ60" t="n">
         <v>6.196054005550092</v>
